--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8785121147651622</v>
+        <v>0.8785121147651641</v>
       </c>
       <c r="D2">
-        <v>0.8962843078319414</v>
+        <v>0.8962843078319428</v>
       </c>
       <c r="E2">
-        <v>0.89682568616573</v>
+        <v>0.8968256861657317</v>
       </c>
       <c r="F2">
-        <v>0.8434386119306786</v>
+        <v>0.8434386119306803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018426248841092</v>
+        <v>1.018426248841093</v>
       </c>
       <c r="J2">
-        <v>0.9050517201772899</v>
+        <v>0.9050517201772915</v>
       </c>
       <c r="K2">
-        <v>0.909406346043745</v>
+        <v>0.9094063460437467</v>
       </c>
       <c r="L2">
-        <v>0.9099377444783576</v>
+        <v>0.9099377444783591</v>
       </c>
       <c r="M2">
-        <v>0.8576167228430358</v>
+        <v>0.8576167228430374</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9038171644781784</v>
+        <v>0.9038171644781773</v>
       </c>
       <c r="D3">
-        <v>0.9188457938735466</v>
+        <v>0.9188457938735457</v>
       </c>
       <c r="E3">
-        <v>0.9197299622637614</v>
+        <v>0.9197299622637601</v>
       </c>
       <c r="F3">
-        <v>0.880354375599577</v>
+        <v>0.8803543755995763</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.025674552570672</v>
       </c>
       <c r="J3">
-        <v>0.9273238553170378</v>
+        <v>0.9273238553170366</v>
       </c>
       <c r="K3">
-        <v>0.9306343706763143</v>
+        <v>0.9306343706763134</v>
       </c>
       <c r="L3">
-        <v>0.9315045415520091</v>
+        <v>0.9315045415520082</v>
       </c>
       <c r="M3">
-        <v>0.8927876677932342</v>
+        <v>0.8927876677932335</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.917634638509624</v>
+        <v>0.9176346385096237</v>
       </c>
       <c r="D4">
-        <v>0.9311640797180882</v>
+        <v>0.931164079718088</v>
       </c>
       <c r="E4">
-        <v>0.9321948496872401</v>
+        <v>0.93219484968724</v>
       </c>
       <c r="F4">
-        <v>0.8999389580785383</v>
+        <v>0.8999389580785376</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.029486908837588</v>
       </c>
       <c r="J4">
-        <v>0.9394087893643385</v>
+        <v>0.9394087893643381</v>
       </c>
       <c r="K4">
-        <v>0.9421709995216092</v>
+        <v>0.9421709995216089</v>
       </c>
       <c r="L4">
-        <v>0.9431869128226088</v>
+        <v>0.9431869128226086</v>
       </c>
       <c r="M4">
-        <v>0.9114165663347598</v>
+        <v>0.9114165663347592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9230124383514106</v>
       </c>
       <c r="D5">
-        <v>0.9359584918015175</v>
+        <v>0.9359584918015176</v>
       </c>
       <c r="E5">
-        <v>0.937038739527832</v>
+        <v>0.9370387395278318</v>
       </c>
       <c r="F5">
-        <v>0.9074565611501445</v>
+        <v>0.9074565611501444</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>0.9440978161596134</v>
       </c>
       <c r="K5">
-        <v>0.9466507790015934</v>
+        <v>0.9466507790015937</v>
       </c>
       <c r="L5">
-        <v>0.9477160519703881</v>
+        <v>0.947716051970388</v>
       </c>
       <c r="M5">
-        <v>0.9185603378050016</v>
+        <v>0.9185603378050013</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9238935589557535</v>
+        <v>0.9238935589557528</v>
       </c>
       <c r="D6">
-        <v>0.9367440388641586</v>
+        <v>0.9367440388641579</v>
       </c>
       <c r="E6">
-        <v>0.9378319888329868</v>
+        <v>0.9378319888329861</v>
       </c>
       <c r="F6">
-        <v>0.908682739858544</v>
+        <v>0.9086827398585432</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03117644882818</v>
       </c>
       <c r="J6">
-        <v>0.9448653083748625</v>
+        <v>0.9448653083748617</v>
       </c>
       <c r="K6">
-        <v>0.9473842106909528</v>
+        <v>0.9473842106909521</v>
       </c>
       <c r="L6">
-        <v>0.9484571772494372</v>
+        <v>0.9484571772494365</v>
       </c>
       <c r="M6">
-        <v>0.9197251336740769</v>
+        <v>0.919725133674076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9177080263774864</v>
+        <v>0.9177080263774902</v>
       </c>
       <c r="D7">
-        <v>0.9312295057461106</v>
+        <v>0.931229505746114</v>
       </c>
       <c r="E7">
-        <v>0.9322609794444708</v>
+        <v>0.9322609794444744</v>
       </c>
       <c r="F7">
-        <v>0.9000419384351058</v>
+        <v>0.9000419384351094</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.029506859053609</v>
       </c>
       <c r="J7">
-        <v>0.9394728326278965</v>
+        <v>0.9394728326279002</v>
       </c>
       <c r="K7">
-        <v>0.9422321715764032</v>
+        <v>0.9422321715764066</v>
       </c>
       <c r="L7">
-        <v>0.9432487862218427</v>
+        <v>0.9432487862218459</v>
       </c>
       <c r="M7">
-        <v>0.9115144538715262</v>
+        <v>0.9115144538715296</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D8">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E8">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F8">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J8">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K8">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L8">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M8">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D9">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E9">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F9">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J9">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K9">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L9">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M9">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D10">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E10">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F10">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J10">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K10">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L10">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M10">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D11">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E11">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F11">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J11">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K11">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L11">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M11">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D12">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E12">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F12">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J12">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K12">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L12">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M12">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D13">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E13">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F13">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J13">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K13">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L13">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M13">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D14">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E14">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F14">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J14">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K14">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L14">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M14">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D15">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E15">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F15">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J15">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K15">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L15">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M15">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D16">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E16">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F16">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J16">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K16">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L16">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M16">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D17">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E17">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F17">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J17">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K17">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L17">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M17">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D18">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E18">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F18">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J18">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K18">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L18">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M18">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D19">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E19">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F19">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J19">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K19">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L19">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M19">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D20">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E20">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F20">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J20">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K20">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L20">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M20">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D21">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E21">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F21">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J21">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K21">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L21">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M21">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D22">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E22">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F22">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J22">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K22">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L22">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M22">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D23">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E23">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F23">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J23">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K23">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L23">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M23">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D24">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E24">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F24">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J24">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K24">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L24">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M24">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8877473829352698</v>
+        <v>0.8877473829352717</v>
       </c>
       <c r="D25">
-        <v>0.9045189557428635</v>
+        <v>0.9045189557428651</v>
       </c>
       <c r="E25">
-        <v>0.9051968476909222</v>
+        <v>0.9051968476909238</v>
       </c>
       <c r="F25">
-        <v>0.8570745610311103</v>
+        <v>0.8570745610311117</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J25">
-        <v>0.9132014616113309</v>
+        <v>0.9132014616113325</v>
       </c>
       <c r="K25">
-        <v>0.9171689781892217</v>
+        <v>0.9171689781892234</v>
       </c>
       <c r="L25">
-        <v>0.9178350178773621</v>
+        <v>0.9178350178773638</v>
       </c>
       <c r="M25">
-        <v>0.870615436120256</v>
+        <v>0.8706154361202574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8785121147651641</v>
+        <v>0.8785121147651622</v>
       </c>
       <c r="D2">
-        <v>0.8962843078319428</v>
+        <v>0.8962843078319414</v>
       </c>
       <c r="E2">
-        <v>0.8968256861657317</v>
+        <v>0.89682568616573</v>
       </c>
       <c r="F2">
-        <v>0.8434386119306803</v>
+        <v>0.8434386119306786</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018426248841093</v>
+        <v>1.018426248841092</v>
       </c>
       <c r="J2">
-        <v>0.9050517201772915</v>
+        <v>0.9050517201772899</v>
       </c>
       <c r="K2">
-        <v>0.9094063460437467</v>
+        <v>0.909406346043745</v>
       </c>
       <c r="L2">
-        <v>0.9099377444783591</v>
+        <v>0.9099377444783576</v>
       </c>
       <c r="M2">
-        <v>0.8576167228430374</v>
+        <v>0.8576167228430358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9038171644781773</v>
+        <v>0.9038171644781784</v>
       </c>
       <c r="D3">
-        <v>0.9188457938735457</v>
+        <v>0.9188457938735466</v>
       </c>
       <c r="E3">
-        <v>0.9197299622637601</v>
+        <v>0.9197299622637614</v>
       </c>
       <c r="F3">
-        <v>0.8803543755995763</v>
+        <v>0.880354375599577</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.025674552570672</v>
       </c>
       <c r="J3">
-        <v>0.9273238553170366</v>
+        <v>0.9273238553170378</v>
       </c>
       <c r="K3">
-        <v>0.9306343706763134</v>
+        <v>0.9306343706763143</v>
       </c>
       <c r="L3">
-        <v>0.9315045415520082</v>
+        <v>0.9315045415520091</v>
       </c>
       <c r="M3">
-        <v>0.8927876677932335</v>
+        <v>0.8927876677932342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9176346385096237</v>
+        <v>0.917634638509624</v>
       </c>
       <c r="D4">
-        <v>0.931164079718088</v>
+        <v>0.9311640797180882</v>
       </c>
       <c r="E4">
-        <v>0.93219484968724</v>
+        <v>0.9321948496872401</v>
       </c>
       <c r="F4">
-        <v>0.8999389580785376</v>
+        <v>0.8999389580785383</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.029486908837588</v>
       </c>
       <c r="J4">
-        <v>0.9394087893643381</v>
+        <v>0.9394087893643385</v>
       </c>
       <c r="K4">
-        <v>0.9421709995216089</v>
+        <v>0.9421709995216092</v>
       </c>
       <c r="L4">
-        <v>0.9431869128226086</v>
+        <v>0.9431869128226088</v>
       </c>
       <c r="M4">
-        <v>0.9114165663347592</v>
+        <v>0.9114165663347598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9230124383514106</v>
       </c>
       <c r="D5">
-        <v>0.9359584918015176</v>
+        <v>0.9359584918015175</v>
       </c>
       <c r="E5">
-        <v>0.9370387395278318</v>
+        <v>0.937038739527832</v>
       </c>
       <c r="F5">
-        <v>0.9074565611501444</v>
+        <v>0.9074565611501445</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>0.9440978161596134</v>
       </c>
       <c r="K5">
-        <v>0.9466507790015937</v>
+        <v>0.9466507790015934</v>
       </c>
       <c r="L5">
-        <v>0.947716051970388</v>
+        <v>0.9477160519703881</v>
       </c>
       <c r="M5">
-        <v>0.9185603378050013</v>
+        <v>0.9185603378050016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9238935589557528</v>
+        <v>0.9238935589557535</v>
       </c>
       <c r="D6">
-        <v>0.9367440388641579</v>
+        <v>0.9367440388641586</v>
       </c>
       <c r="E6">
-        <v>0.9378319888329861</v>
+        <v>0.9378319888329868</v>
       </c>
       <c r="F6">
-        <v>0.9086827398585432</v>
+        <v>0.908682739858544</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03117644882818</v>
       </c>
       <c r="J6">
-        <v>0.9448653083748617</v>
+        <v>0.9448653083748625</v>
       </c>
       <c r="K6">
-        <v>0.9473842106909521</v>
+        <v>0.9473842106909528</v>
       </c>
       <c r="L6">
-        <v>0.9484571772494365</v>
+        <v>0.9484571772494372</v>
       </c>
       <c r="M6">
-        <v>0.919725133674076</v>
+        <v>0.9197251336740769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9177080263774902</v>
+        <v>0.9177080263774864</v>
       </c>
       <c r="D7">
-        <v>0.931229505746114</v>
+        <v>0.9312295057461106</v>
       </c>
       <c r="E7">
-        <v>0.9322609794444744</v>
+        <v>0.9322609794444708</v>
       </c>
       <c r="F7">
-        <v>0.9000419384351094</v>
+        <v>0.9000419384351058</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.029506859053609</v>
       </c>
       <c r="J7">
-        <v>0.9394728326279002</v>
+        <v>0.9394728326278965</v>
       </c>
       <c r="K7">
-        <v>0.9422321715764066</v>
+        <v>0.9422321715764032</v>
       </c>
       <c r="L7">
-        <v>0.9432487862218459</v>
+        <v>0.9432487862218427</v>
       </c>
       <c r="M7">
-        <v>0.9115144538715296</v>
+        <v>0.9115144538715262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D8">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E8">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F8">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J8">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K8">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L8">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M8">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D9">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E9">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F9">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J9">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K9">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L9">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M9">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D10">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E10">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F10">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J10">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K10">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L10">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M10">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D11">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E11">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F11">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J11">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K11">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L11">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M11">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D12">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E12">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F12">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J12">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K12">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L12">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M12">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D13">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E13">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F13">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J13">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K13">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L13">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M13">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D14">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E14">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F14">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J14">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K14">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L14">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M14">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D15">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E15">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F15">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J15">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K15">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L15">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M15">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D16">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E16">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F16">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J16">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K16">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L16">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M16">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D17">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E17">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F17">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J17">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K17">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L17">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M17">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D18">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E18">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F18">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J18">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K18">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L18">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M18">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D19">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E19">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F19">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J19">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K19">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L19">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M19">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D20">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E20">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F20">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J20">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K20">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L20">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M20">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D21">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E21">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F21">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J21">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K21">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L21">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M21">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D22">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E22">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F22">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J22">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K22">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L22">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M22">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D23">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E23">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F23">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J23">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K23">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L23">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M23">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D24">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E24">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F24">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J24">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K24">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L24">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M24">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8877473829352717</v>
+        <v>0.8877473829352698</v>
       </c>
       <c r="D25">
-        <v>0.9045189557428651</v>
+        <v>0.9045189557428635</v>
       </c>
       <c r="E25">
-        <v>0.9051968476909238</v>
+        <v>0.9051968476909222</v>
       </c>
       <c r="F25">
-        <v>0.8570745610311117</v>
+        <v>0.8570745610311103</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.021109363989118</v>
       </c>
       <c r="J25">
-        <v>0.9132014616113325</v>
+        <v>0.9132014616113309</v>
       </c>
       <c r="K25">
-        <v>0.9171689781892234</v>
+        <v>0.9171689781892217</v>
       </c>
       <c r="L25">
-        <v>0.9178350178773638</v>
+        <v>0.9178350178773621</v>
       </c>
       <c r="M25">
-        <v>0.8706154361202574</v>
+        <v>0.870615436120256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8785121147651622</v>
+        <v>0.8786403233216996</v>
       </c>
       <c r="D2">
-        <v>0.8962843078319414</v>
+        <v>0.8964019090228825</v>
       </c>
       <c r="E2">
-        <v>0.89682568616573</v>
+        <v>0.8969373345285179</v>
       </c>
       <c r="F2">
-        <v>0.8434386119306786</v>
+        <v>0.8435586034015602</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.018426248841092</v>
+        <v>1.01844134650659</v>
       </c>
       <c r="J2">
-        <v>0.9050517201772899</v>
+        <v>0.9051744168613377</v>
       </c>
       <c r="K2">
-        <v>0.909406346043745</v>
+        <v>0.9095217780102203</v>
       </c>
       <c r="L2">
-        <v>0.9099377444783576</v>
+        <v>0.9100473366407248</v>
       </c>
       <c r="M2">
-        <v>0.8576167228430358</v>
+        <v>0.8577341173924267</v>
+      </c>
+      <c r="N2">
+        <v>0.938493085837161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9038171644781784</v>
+        <v>0.9039109038102103</v>
       </c>
       <c r="D3">
-        <v>0.9188457938735466</v>
+        <v>0.918932124443367</v>
       </c>
       <c r="E3">
-        <v>0.9197299622637614</v>
+        <v>0.9198113937767581</v>
       </c>
       <c r="F3">
-        <v>0.880354375599577</v>
+        <v>0.8804369809438558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025674552570672</v>
+        <v>1.02568434516475</v>
       </c>
       <c r="J3">
-        <v>0.9273238553170378</v>
+        <v>0.927414215510144</v>
       </c>
       <c r="K3">
-        <v>0.9306343706763143</v>
+        <v>0.9307193330032428</v>
       </c>
       <c r="L3">
-        <v>0.9315045415520091</v>
+        <v>0.9315846856329799</v>
       </c>
       <c r="M3">
-        <v>0.8927876677932342</v>
+        <v>0.892868811245903</v>
+      </c>
+      <c r="N3">
+        <v>0.95351668576746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.917634638509624</v>
+        <v>0.9177124111519418</v>
       </c>
       <c r="D4">
-        <v>0.9311640797180882</v>
+        <v>0.9312358567859489</v>
       </c>
       <c r="E4">
-        <v>0.9321948496872401</v>
+        <v>0.9322623658771532</v>
       </c>
       <c r="F4">
-        <v>0.8999389580785383</v>
+        <v>0.9000057049637413</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029486908837588</v>
+        <v>1.029494601658993</v>
       </c>
       <c r="J4">
-        <v>0.9394087893643385</v>
+        <v>0.9394840447077297</v>
       </c>
       <c r="K4">
-        <v>0.9421709995216092</v>
+        <v>0.942241740704153</v>
       </c>
       <c r="L4">
-        <v>0.9431869128226088</v>
+        <v>0.9432534573419663</v>
       </c>
       <c r="M4">
-        <v>0.9114165663347598</v>
+        <v>0.9114822625065151</v>
+      </c>
+      <c r="N4">
+        <v>0.961671133432551</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9230124383514106</v>
+        <v>0.9230843949221299</v>
       </c>
       <c r="D5">
-        <v>0.9359584918015175</v>
+        <v>0.9360249549800058</v>
       </c>
       <c r="E5">
-        <v>0.937038739527832</v>
+        <v>0.937101197174013</v>
       </c>
       <c r="F5">
-        <v>0.9074565611501445</v>
+        <v>0.9075177453937263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030940079217214</v>
+        <v>1.030947059310763</v>
       </c>
       <c r="J5">
-        <v>0.9440978161596134</v>
+        <v>0.9441675451431381</v>
       </c>
       <c r="K5">
-        <v>0.9466507790015934</v>
+        <v>0.946716319586416</v>
       </c>
       <c r="L5">
-        <v>0.9477160519703881</v>
+        <v>0.9477776451389952</v>
       </c>
       <c r="M5">
-        <v>0.9185603378050016</v>
+        <v>0.9186206034896335</v>
+      </c>
+      <c r="N5">
+        <v>0.9648353673981773</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9238935589557535</v>
+        <v>0.9239645813758052</v>
       </c>
       <c r="D6">
-        <v>0.9367440388641586</v>
+        <v>0.9368096478913288</v>
       </c>
       <c r="E6">
-        <v>0.9378319888329868</v>
+        <v>0.9378936344559106</v>
       </c>
       <c r="F6">
-        <v>0.908682739858544</v>
+        <v>0.9087430409051158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03117644882818</v>
+        <v>1.031183316937226</v>
       </c>
       <c r="J6">
-        <v>0.9448653083748625</v>
+        <v>0.9449341484470004</v>
       </c>
       <c r="K6">
-        <v>0.9473842106909528</v>
+        <v>0.9474489148978411</v>
       </c>
       <c r="L6">
-        <v>0.9484571772494372</v>
+        <v>0.9485179751908459</v>
       </c>
       <c r="M6">
-        <v>0.9197251336740769</v>
+        <v>0.9197845365242743</v>
+      </c>
+      <c r="N6">
+        <v>0.9653532926492995</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9177080263774864</v>
+        <v>0.917785718276323</v>
       </c>
       <c r="D7">
-        <v>0.9312295057461106</v>
+        <v>0.9313012090899238</v>
       </c>
       <c r="E7">
-        <v>0.9322609794444708</v>
+        <v>0.9323284253727745</v>
       </c>
       <c r="F7">
-        <v>0.9000419384351058</v>
+        <v>0.9001086073333262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029506859053609</v>
+        <v>1.029514541795064</v>
       </c>
       <c r="J7">
-        <v>0.9394728326278965</v>
+        <v>0.9395480113429138</v>
       </c>
       <c r="K7">
-        <v>0.9422321715764032</v>
+        <v>0.9423028406379846</v>
       </c>
       <c r="L7">
-        <v>0.9432487862218427</v>
+        <v>0.9433152619979551</v>
       </c>
       <c r="M7">
-        <v>0.9115144538715262</v>
+        <v>0.9115800739547107</v>
+      </c>
+      <c r="N7">
+        <v>0.9617143501795012</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D8">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E8">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F8">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J8">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K8">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L8">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M8">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N8">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D9">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E9">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F9">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J9">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K9">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L9">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M9">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N9">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D10">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E10">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F10">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J10">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K10">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L10">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M10">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N10">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D11">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E11">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F11">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J11">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K11">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L11">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M11">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N11">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D12">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E12">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F12">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J12">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K12">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L12">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M12">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N12">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D13">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E13">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F13">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J13">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K13">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L13">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M13">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N13">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D14">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E14">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F14">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J14">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K14">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L14">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M14">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N14">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D15">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E15">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F15">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J15">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K15">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L15">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M15">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N15">
+        <v>0.9439895033991131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D16">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E16">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F16">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J16">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K16">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L16">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M16">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N16">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D17">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E17">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F17">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J17">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K17">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L17">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M17">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N17">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D18">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E18">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F18">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J18">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K18">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L18">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M18">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N18">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D19">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E19">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F19">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J19">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K19">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L19">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M19">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N19">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D20">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E20">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F20">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J20">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K20">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L20">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M20">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N20">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D21">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E21">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F21">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J21">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K21">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L21">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M21">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N21">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D22">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E22">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F22">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J22">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K22">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L22">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M22">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N22">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D23">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E23">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F23">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J23">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K23">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L23">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M23">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N23">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D24">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E24">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F24">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J24">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K24">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L24">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M24">
-        <v>0.870615436120256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N24">
+        <v>0.9439895033991131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8877473829352698</v>
+        <v>0.8878620428038644</v>
       </c>
       <c r="D25">
-        <v>0.9045189557428635</v>
+        <v>0.9046242867753075</v>
       </c>
       <c r="E25">
-        <v>0.9051968476909222</v>
+        <v>0.9052965867153591</v>
       </c>
       <c r="F25">
-        <v>0.8570745610311103</v>
+        <v>0.857179326185377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021109363989118</v>
+        <v>1.021122245818238</v>
       </c>
       <c r="J25">
-        <v>0.9132014616113309</v>
+        <v>0.9133114859010996</v>
       </c>
       <c r="K25">
-        <v>0.9171689781892217</v>
+        <v>0.9172724661044392</v>
       </c>
       <c r="L25">
-        <v>0.9178350178773621</v>
+        <v>0.9179330150050807</v>
       </c>
       <c r="M25">
-        <v>0.870615436120256</v>
+        <v>0.8707180910779381</v>
+      </c>
+      <c r="N25">
+        <v>0.9439895033991131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8786403233216996</v>
+        <v>0.9739705336544091</v>
       </c>
       <c r="D2">
-        <v>0.8964019090228825</v>
+        <v>0.9890628446119949</v>
       </c>
       <c r="E2">
-        <v>0.8969373345285179</v>
+        <v>0.9906485982589205</v>
       </c>
       <c r="F2">
-        <v>0.8435586034015602</v>
+        <v>0.9957439862038733</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.01844134650659</v>
+        <v>1.039499750537995</v>
       </c>
       <c r="J2">
-        <v>0.9051744168613377</v>
+        <v>0.996958666984181</v>
       </c>
       <c r="K2">
-        <v>0.9095217780102203</v>
+        <v>1.000676684073342</v>
       </c>
       <c r="L2">
-        <v>0.9100473366407248</v>
+        <v>1.00223976887744</v>
       </c>
       <c r="M2">
-        <v>0.8577341173924267</v>
+        <v>1.007262934243957</v>
       </c>
       <c r="N2">
-        <v>0.938493085837161</v>
+        <v>0.9983744626440562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9039109038102103</v>
+        <v>0.9926222729943471</v>
       </c>
       <c r="D3">
-        <v>0.918932124443367</v>
+        <v>1.006969908760875</v>
       </c>
       <c r="E3">
-        <v>0.9198113937767581</v>
+        <v>1.007173356107415</v>
       </c>
       <c r="F3">
-        <v>0.8804369809438558</v>
+        <v>1.013664518063419</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02568434516475</v>
+        <v>1.043201383514965</v>
       </c>
       <c r="J3">
-        <v>0.927414215510144</v>
+        <v>1.013316103051455</v>
       </c>
       <c r="K3">
-        <v>0.9307193330032428</v>
+        <v>1.017514378362616</v>
       </c>
       <c r="L3">
-        <v>0.9315846856329799</v>
+        <v>1.017715267966139</v>
       </c>
       <c r="M3">
-        <v>0.892868811245903</v>
+        <v>1.024125494031856</v>
       </c>
       <c r="N3">
-        <v>0.95351668576746</v>
+        <v>1.01475512814677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9177124111519418</v>
+        <v>1.003795107922577</v>
       </c>
       <c r="D4">
-        <v>0.9312358567859489</v>
+        <v>1.017705430285163</v>
       </c>
       <c r="E4">
-        <v>0.9322623658771532</v>
+        <v>1.017084956002584</v>
       </c>
       <c r="F4">
-        <v>0.9000057049637413</v>
+        <v>1.024414074357709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029494601658993</v>
+        <v>1.045380858489082</v>
       </c>
       <c r="J4">
-        <v>0.9394840447077297</v>
+        <v>1.023102230148577</v>
       </c>
       <c r="K4">
-        <v>0.942241740704153</v>
+        <v>1.02759476145064</v>
       </c>
       <c r="L4">
-        <v>0.9432534573419663</v>
+        <v>1.02698146258759</v>
       </c>
       <c r="M4">
-        <v>0.9114822625065151</v>
+        <v>1.034226508623215</v>
       </c>
       <c r="N4">
-        <v>0.961671133432551</v>
+        <v>1.024555152666854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9230843949221299</v>
+        <v>1.008307058688161</v>
       </c>
       <c r="D5">
-        <v>0.9360249549800058</v>
+        <v>1.022042561142822</v>
       </c>
       <c r="E5">
-        <v>0.937101197174013</v>
+        <v>1.021090251249276</v>
       </c>
       <c r="F5">
-        <v>0.9075177453937263</v>
+        <v>1.02875825281778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030947059310763</v>
+        <v>1.046251253678445</v>
       </c>
       <c r="J5">
-        <v>0.9441675451431381</v>
+        <v>1.027051020244243</v>
       </c>
       <c r="K5">
-        <v>0.946716319586416</v>
+        <v>1.031663917562107</v>
       </c>
       <c r="L5">
-        <v>0.9477776451389952</v>
+        <v>1.030722237752654</v>
       </c>
       <c r="M5">
-        <v>0.9186206034896335</v>
+        <v>1.0383053323005</v>
       </c>
       <c r="N5">
-        <v>0.9648353673981773</v>
+        <v>1.028509550497388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9239645813758052</v>
+        <v>1.009054506729818</v>
       </c>
       <c r="D6">
-        <v>0.9368096478913288</v>
+        <v>1.02276114548074</v>
       </c>
       <c r="E6">
-        <v>0.9378936344559106</v>
+        <v>1.021753913883842</v>
       </c>
       <c r="F6">
-        <v>0.9087430409051158</v>
+        <v>1.029478084664338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031183316937226</v>
+        <v>1.046394851595786</v>
       </c>
       <c r="J6">
-        <v>0.9449341484470004</v>
+        <v>1.027704984014022</v>
       </c>
       <c r="K6">
-        <v>0.9474489148978411</v>
+        <v>1.032337910605521</v>
       </c>
       <c r="L6">
-        <v>0.9485179751908459</v>
+        <v>1.031341855342692</v>
       </c>
       <c r="M6">
-        <v>0.9197845365242743</v>
+        <v>1.038981004566841</v>
       </c>
       <c r="N6">
-        <v>0.9653532926492995</v>
+        <v>1.029164442970731</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.917785718276323</v>
+        <v>1.003856090490053</v>
       </c>
       <c r="D7">
-        <v>0.9313012090899238</v>
+        <v>1.017764043289179</v>
       </c>
       <c r="E7">
-        <v>0.9323284253727745</v>
+        <v>1.017139080544717</v>
       </c>
       <c r="F7">
-        <v>0.9001086073333262</v>
+        <v>1.024472777167555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029514541795064</v>
+        <v>1.045392662271737</v>
       </c>
       <c r="J7">
-        <v>0.9395480113429138</v>
+        <v>1.023155614013864</v>
       </c>
       <c r="K7">
-        <v>0.9423028406379846</v>
+        <v>1.027649766073019</v>
       </c>
       <c r="L7">
-        <v>0.9433152619979551</v>
+        <v>1.027032027247438</v>
       </c>
       <c r="M7">
-        <v>0.9115800739547107</v>
+        <v>1.034281638624663</v>
       </c>
       <c r="N7">
-        <v>0.9617143501795012</v>
+        <v>1.024608612343353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8878620428038644</v>
+        <v>0.9804797287092459</v>
       </c>
       <c r="D8">
-        <v>0.9046242867753075</v>
+        <v>0.9953100170338259</v>
       </c>
       <c r="E8">
-        <v>0.9052965867153591</v>
+        <v>0.9964123998018072</v>
       </c>
       <c r="F8">
-        <v>0.857179326185377</v>
+        <v>1.001994521344671</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021122245818238</v>
+        <v>1.040799364326103</v>
       </c>
       <c r="J8">
-        <v>0.9133114859010996</v>
+        <v>1.002669733971316</v>
       </c>
       <c r="K8">
-        <v>0.9172724661044392</v>
+        <v>1.006553894148555</v>
       </c>
       <c r="L8">
-        <v>0.9179330150050807</v>
+        <v>1.00764118771975</v>
       </c>
       <c r="M8">
-        <v>0.8707180910779381</v>
+        <v>1.013147543184074</v>
       </c>
       <c r="N8">
-        <v>0.9439895033991131</v>
+        <v>1.004093640001382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8878620428038644</v>
+        <v>0.9305241559426318</v>
       </c>
       <c r="D9">
-        <v>0.9046242867753075</v>
+        <v>0.9474291603192861</v>
       </c>
       <c r="E9">
-        <v>0.9052965867153591</v>
+        <v>0.9522674346721753</v>
       </c>
       <c r="F9">
-        <v>0.857179326185377</v>
+        <v>0.9541199563381707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021122245818238</v>
+        <v>1.03068394361269</v>
       </c>
       <c r="J9">
-        <v>0.9133114859010996</v>
+        <v>0.9587936385017946</v>
       </c>
       <c r="K9">
-        <v>0.9172724661044392</v>
+        <v>0.9614369225019563</v>
       </c>
       <c r="L9">
-        <v>0.9179330150050807</v>
+        <v>0.9661855170752766</v>
       </c>
       <c r="M9">
-        <v>0.8707180910779381</v>
+        <v>0.968004014912877</v>
       </c>
       <c r="N9">
-        <v>0.9439895033991131</v>
+        <v>0.9601552354436347</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8878620428038644</v>
+        <v>0.8868565777436308</v>
       </c>
       <c r="D10">
-        <v>0.9046242867753075</v>
+        <v>0.9057104754651811</v>
       </c>
       <c r="E10">
-        <v>0.9052965867153591</v>
+        <v>0.9138642000363058</v>
       </c>
       <c r="F10">
-        <v>0.857179326185377</v>
+        <v>0.912457914535151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021122245818238</v>
+        <v>1.021729100550134</v>
       </c>
       <c r="J10">
-        <v>0.9133114859010996</v>
+        <v>0.920409041633529</v>
       </c>
       <c r="K10">
-        <v>0.9172724661044392</v>
+        <v>0.9220199060954983</v>
       </c>
       <c r="L10">
-        <v>0.9179330150050807</v>
+        <v>0.9299847166631771</v>
       </c>
       <c r="M10">
-        <v>0.8707180910779381</v>
+        <v>0.9286106915185255</v>
       </c>
       <c r="N10">
-        <v>0.9439895033991131</v>
+        <v>0.9217161280450411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8878620428038644</v>
+        <v>0.8632741835994938</v>
       </c>
       <c r="D11">
-        <v>0.9046242867753075</v>
+        <v>0.8832423151747402</v>
       </c>
       <c r="E11">
-        <v>0.9052965867153591</v>
+        <v>0.8932066017691179</v>
       </c>
       <c r="F11">
-        <v>0.857179326185377</v>
+        <v>0.8900364147049573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021122245818238</v>
+        <v>1.016915169690159</v>
       </c>
       <c r="J11">
-        <v>0.9133114859010996</v>
+        <v>0.8996935972260334</v>
       </c>
       <c r="K11">
-        <v>0.9172724661044392</v>
+        <v>0.9007621060740675</v>
       </c>
       <c r="L11">
-        <v>0.9179330150050807</v>
+        <v>0.9104688109253479</v>
       </c>
       <c r="M11">
-        <v>0.8707180910779381</v>
+        <v>0.9073797284356461</v>
       </c>
       <c r="N11">
-        <v>0.9439895033991131</v>
+        <v>0.9009712653303923</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8878620428038644</v>
+        <v>0.8533835664769712</v>
       </c>
       <c r="D12">
-        <v>0.9046242867753075</v>
+        <v>0.8738334313131702</v>
       </c>
       <c r="E12">
-        <v>0.9052965867153591</v>
+        <v>0.8845614440404138</v>
       </c>
       <c r="F12">
-        <v>0.857179326185377</v>
+        <v>0.8806500633835685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021122245818238</v>
+        <v>1.014908195004388</v>
       </c>
       <c r="J12">
-        <v>0.9133114859010996</v>
+        <v>0.8910116774454251</v>
       </c>
       <c r="K12">
-        <v>0.9172724661044392</v>
+        <v>0.8918553372820943</v>
       </c>
       <c r="L12">
-        <v>0.9179330150050807</v>
+        <v>0.9022935194068968</v>
       </c>
       <c r="M12">
-        <v>0.8707180910779381</v>
+        <v>0.8984866974765987</v>
       </c>
       <c r="N12">
-        <v>0.9439895033991131</v>
+        <v>0.8922770162278651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8878620428038644</v>
+        <v>0.855568241138802</v>
       </c>
       <c r="D13">
-        <v>0.9046242867753075</v>
+        <v>0.8759109307554569</v>
       </c>
       <c r="E13">
-        <v>0.9052965867153591</v>
+        <v>0.886470022710854</v>
       </c>
       <c r="F13">
-        <v>0.857179326185377</v>
+        <v>0.8827224420754951</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021122245818238</v>
+        <v>1.015350752410639</v>
       </c>
       <c r="J13">
-        <v>0.9133114859010996</v>
+        <v>0.8929289819963284</v>
       </c>
       <c r="K13">
-        <v>0.9172724661044392</v>
+        <v>0.8938221842975876</v>
       </c>
       <c r="L13">
-        <v>0.9179330150050807</v>
+        <v>0.9040987511002246</v>
       </c>
       <c r="M13">
-        <v>0.8707180910779381</v>
+        <v>0.900450392028267</v>
       </c>
       <c r="N13">
-        <v>0.9439895033991131</v>
+        <v>0.8941970435711488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8878620428038644</v>
+        <v>0.8624837537441641</v>
       </c>
       <c r="D14">
-        <v>0.9046242867753075</v>
+        <v>0.8824900592610889</v>
       </c>
       <c r="E14">
-        <v>0.9052965867153591</v>
+        <v>0.8925152844339029</v>
       </c>
       <c r="F14">
-        <v>0.857179326185377</v>
+        <v>0.8892858975064299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021122245818238</v>
+        <v>1.016754470207505</v>
       </c>
       <c r="J14">
-        <v>0.9133114859010996</v>
+        <v>0.8989996034951824</v>
       </c>
       <c r="K14">
-        <v>0.9172724661044392</v>
+        <v>0.9000500895767828</v>
       </c>
       <c r="L14">
-        <v>0.9179330150050807</v>
+        <v>0.9098152329581065</v>
       </c>
       <c r="M14">
-        <v>0.8707180910779381</v>
+        <v>0.9066687586583824</v>
       </c>
       <c r="N14">
-        <v>0.9439895033991131</v>
+        <v>0.9002762860488415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8878620428038644</v>
+        <v>0.8665748205708403</v>
       </c>
       <c r="D15">
-        <v>0.9046242867753075</v>
+        <v>0.8863841449208507</v>
       </c>
       <c r="E15">
-        <v>0.9052965867153591</v>
+        <v>0.8960941464326034</v>
       </c>
       <c r="F15">
-        <v>0.857179326185377</v>
+        <v>0.8931711027418401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021122245818238</v>
+        <v>1.017586741979515</v>
       </c>
       <c r="J15">
-        <v>0.9133114859010996</v>
+        <v>0.9025918170301589</v>
       </c>
       <c r="K15">
-        <v>0.9172724661044392</v>
+        <v>0.9037356881964094</v>
       </c>
       <c r="L15">
-        <v>0.9179330150050807</v>
+        <v>0.9131984049819141</v>
       </c>
       <c r="M15">
-        <v>0.8707180910779381</v>
+        <v>0.910349038498112</v>
       </c>
       <c r="N15">
-        <v>0.9439895033991131</v>
+        <v>0.9038736009390701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8878620428038644</v>
+        <v>0.8882947154756732</v>
       </c>
       <c r="D16">
-        <v>0.9046242867753075</v>
+        <v>0.9070821502841764</v>
       </c>
       <c r="E16">
-        <v>0.9052965867153591</v>
+        <v>0.9151259251561467</v>
       </c>
       <c r="F16">
-        <v>0.857179326185377</v>
+        <v>0.9138270835392081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021122245818238</v>
+        <v>1.022023633178823</v>
       </c>
       <c r="J16">
-        <v>0.9133114859010996</v>
+        <v>0.9216728599791832</v>
       </c>
       <c r="K16">
-        <v>0.9172724661044392</v>
+        <v>0.9233171092391919</v>
       </c>
       <c r="L16">
-        <v>0.9179330150050807</v>
+        <v>0.9311757984484371</v>
       </c>
       <c r="M16">
-        <v>0.8707180910779381</v>
+        <v>0.9299065484096009</v>
       </c>
       <c r="N16">
-        <v>0.9439895033991131</v>
+        <v>0.9229817411577086</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8878620428038644</v>
+        <v>0.9004645863089999</v>
       </c>
       <c r="D17">
-        <v>0.9046242867753075</v>
+        <v>0.918696075418451</v>
       </c>
       <c r="E17">
-        <v>0.9052965867153591</v>
+        <v>0.9258115268958363</v>
       </c>
       <c r="F17">
-        <v>0.857179326185377</v>
+        <v>0.9254214621264154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021122245818238</v>
+        <v>1.024518677788742</v>
       </c>
       <c r="J17">
-        <v>0.9133114859010996</v>
+        <v>0.9323691679932358</v>
       </c>
       <c r="K17">
-        <v>0.9172724661044392</v>
+        <v>0.9342974881872453</v>
       </c>
       <c r="L17">
-        <v>0.9179330150050807</v>
+        <v>0.9412586691190354</v>
       </c>
       <c r="M17">
-        <v>0.8707180910779381</v>
+        <v>0.9408769798698382</v>
       </c>
       <c r="N17">
-        <v>0.9439895033991131</v>
+        <v>0.9336932391560242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8878620428038644</v>
+        <v>0.9071503890788178</v>
       </c>
       <c r="D18">
-        <v>0.9046242867753075</v>
+        <v>0.925081247338311</v>
       </c>
       <c r="E18">
-        <v>0.9052965867153591</v>
+        <v>0.9316882844776896</v>
       </c>
       <c r="F18">
-        <v>0.857179326185377</v>
+        <v>0.9317972009480262</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021122245818238</v>
+        <v>1.025890608197516</v>
       </c>
       <c r="J18">
-        <v>0.9133114859010996</v>
+        <v>0.9382462900995358</v>
       </c>
       <c r="K18">
-        <v>0.9172724661044392</v>
+        <v>0.9403319188998277</v>
       </c>
       <c r="L18">
-        <v>0.9179330150050807</v>
+        <v>0.9468004392156297</v>
       </c>
       <c r="M18">
-        <v>0.8707180910779381</v>
+        <v>0.9469070939868843</v>
       </c>
       <c r="N18">
-        <v>0.9439895033991131</v>
+        <v>0.9395787074498309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8878620428038644</v>
+        <v>0.9093679436399316</v>
       </c>
       <c r="D19">
-        <v>0.9046242867753075</v>
+        <v>0.9271998163790243</v>
       </c>
       <c r="E19">
-        <v>0.9052965867153591</v>
+        <v>0.9336384675642413</v>
       </c>
       <c r="F19">
-        <v>0.857179326185377</v>
+        <v>0.933912852942377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021122245818238</v>
+        <v>1.026345710073817</v>
       </c>
       <c r="J19">
-        <v>0.9133114859010996</v>
+        <v>0.9401956988376619</v>
       </c>
       <c r="K19">
-        <v>0.9172724661044392</v>
+        <v>0.9423337093927953</v>
       </c>
       <c r="L19">
-        <v>0.9179330150050807</v>
+        <v>0.9486388893895099</v>
       </c>
       <c r="M19">
-        <v>0.8707180910779381</v>
+        <v>0.9489076407816366</v>
       </c>
       <c r="N19">
-        <v>0.9439895033991131</v>
+        <v>0.9415308845719653</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8878620428038644</v>
+        <v>0.8992035598251629</v>
       </c>
       <c r="D20">
-        <v>0.9046242867753075</v>
+        <v>0.9174921265926487</v>
       </c>
       <c r="E20">
-        <v>0.9052965867153591</v>
+        <v>0.9247035965342659</v>
       </c>
       <c r="F20">
-        <v>0.857179326185377</v>
+        <v>0.9242193981395375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021122245818238</v>
+        <v>1.02425997709376</v>
       </c>
       <c r="J20">
-        <v>0.9133114859010996</v>
+        <v>0.9312607222813799</v>
       </c>
       <c r="K20">
-        <v>0.9172724661044392</v>
+        <v>0.9331594738671185</v>
       </c>
       <c r="L20">
-        <v>0.9179330150050807</v>
+        <v>0.9402136096823871</v>
       </c>
       <c r="M20">
-        <v>0.8707180910779381</v>
+        <v>0.9397398731081065</v>
       </c>
       <c r="N20">
-        <v>0.9439895033991131</v>
+        <v>0.9325832193241174</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8878620428038644</v>
+        <v>0.8604841722299871</v>
       </c>
       <c r="D21">
-        <v>0.9046242867753075</v>
+        <v>0.8805872970562532</v>
       </c>
       <c r="E21">
-        <v>0.9052965867153591</v>
+        <v>0.8907667552470762</v>
       </c>
       <c r="F21">
-        <v>0.857179326185377</v>
+        <v>0.8873875824065811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021122245818238</v>
+        <v>1.016348170901169</v>
       </c>
       <c r="J21">
-        <v>0.9133114859010996</v>
+        <v>0.8972440987182628</v>
       </c>
       <c r="K21">
-        <v>0.9172724661044392</v>
+        <v>0.8982490341181114</v>
       </c>
       <c r="L21">
-        <v>0.9179330150050807</v>
+        <v>0.9081620267051392</v>
       </c>
       <c r="M21">
-        <v>0.8707180910779381</v>
+        <v>0.9048703914150521</v>
       </c>
       <c r="N21">
-        <v>0.9439895033991131</v>
+        <v>0.8985182882537794</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8878620428038644</v>
+        <v>0.828897721829524</v>
       </c>
       <c r="D22">
-        <v>0.9046242867753075</v>
+        <v>0.8505802531527572</v>
       </c>
       <c r="E22">
-        <v>0.9052965867153591</v>
+        <v>0.8632105132714282</v>
       </c>
       <c r="F22">
-        <v>0.857179326185377</v>
+        <v>0.8574595840711426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021122245818238</v>
+        <v>1.009982690552916</v>
       </c>
       <c r="J22">
-        <v>0.9133114859010996</v>
+        <v>0.8695406031575036</v>
       </c>
       <c r="K22">
-        <v>0.9172724661044392</v>
+        <v>0.8698333599329554</v>
       </c>
       <c r="L22">
-        <v>0.9179330150050807</v>
+        <v>0.882084529987021</v>
       </c>
       <c r="M22">
-        <v>0.8707180910779381</v>
+        <v>0.8765043066550957</v>
       </c>
       <c r="N22">
-        <v>0.9439895033991131</v>
+        <v>0.8707754505516885</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8878620428038644</v>
+        <v>0.846632704576333</v>
       </c>
       <c r="D23">
-        <v>0.9046242867753075</v>
+        <v>0.8674165757472809</v>
       </c>
       <c r="E23">
-        <v>0.9052965867153591</v>
+        <v>0.8786673900105714</v>
       </c>
       <c r="F23">
-        <v>0.857179326185377</v>
+        <v>0.8742495339241482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021122245818238</v>
+        <v>1.013543590710305</v>
       </c>
       <c r="J23">
-        <v>0.9133114859010996</v>
+        <v>0.8850885422134671</v>
       </c>
       <c r="K23">
-        <v>0.9172724661044392</v>
+        <v>0.8857795332246489</v>
       </c>
       <c r="L23">
-        <v>0.9179330150050807</v>
+        <v>0.8967172757969963</v>
       </c>
       <c r="M23">
-        <v>0.8707180910779381</v>
+        <v>0.8924210428605631</v>
       </c>
       <c r="N23">
-        <v>0.9439895033991131</v>
+        <v>0.8863454694644851</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8878620428038644</v>
+        <v>0.8997746132177806</v>
       </c>
       <c r="D24">
-        <v>0.9046242867753075</v>
+        <v>0.9180373175832762</v>
       </c>
       <c r="E24">
-        <v>0.9052965867153591</v>
+        <v>0.9252053008146147</v>
       </c>
       <c r="F24">
-        <v>0.857179326185377</v>
+        <v>0.924763731482239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021122245818238</v>
+        <v>1.024377125811132</v>
       </c>
       <c r="J24">
-        <v>0.9133114859010996</v>
+        <v>0.9317626772781269</v>
       </c>
       <c r="K24">
-        <v>0.9172724661044392</v>
+        <v>0.9336748150195855</v>
       </c>
       <c r="L24">
-        <v>0.9179330150050807</v>
+        <v>0.9406868551187894</v>
       </c>
       <c r="M24">
-        <v>0.8707180910779381</v>
+        <v>0.9402547996598033</v>
       </c>
       <c r="N24">
-        <v>0.9439895033991131</v>
+        <v>0.9330858871545344</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8878620428038644</v>
+        <v>0.9448127482712135</v>
       </c>
       <c r="D25">
-        <v>0.9046242867753075</v>
+        <v>0.9611087670667388</v>
       </c>
       <c r="E25">
-        <v>0.9052965867153591</v>
+        <v>0.9648723329646334</v>
       </c>
       <c r="F25">
-        <v>0.857179326185377</v>
+        <v>0.9677906719179549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021122245818238</v>
+        <v>1.033603253027166</v>
       </c>
       <c r="J25">
-        <v>0.9133114859010996</v>
+        <v>0.9713516459187148</v>
       </c>
       <c r="K25">
-        <v>0.9172724661044392</v>
+        <v>0.974342394502438</v>
       </c>
       <c r="L25">
-        <v>0.9179330150050807</v>
+        <v>0.9780415903381525</v>
       </c>
       <c r="M25">
-        <v>0.8707180910779381</v>
+        <v>0.9809104601545368</v>
       </c>
       <c r="N25">
-        <v>0.9439895033991131</v>
+        <v>0.9727310766715106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9739705336544091</v>
+        <v>0.9788400864412922</v>
       </c>
       <c r="D2">
-        <v>0.9890628446119949</v>
+        <v>0.987442730068454</v>
       </c>
       <c r="E2">
-        <v>0.9906485982589205</v>
+        <v>0.987998114347311</v>
       </c>
       <c r="F2">
-        <v>0.9957439862038733</v>
+        <v>0.9545356695217451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039499750537995</v>
+        <v>1.038881295813225</v>
       </c>
       <c r="J2">
-        <v>0.996958666984181</v>
+        <v>1.001672646838019</v>
       </c>
       <c r="K2">
-        <v>1.000676684073342</v>
+        <v>0.9990798248051835</v>
       </c>
       <c r="L2">
-        <v>1.00223976887744</v>
+        <v>0.9996272261667174</v>
       </c>
       <c r="M2">
-        <v>1.007262934243957</v>
+        <v>0.9666669616663719</v>
       </c>
       <c r="N2">
-        <v>0.9983744626440562</v>
+        <v>1.004074343906951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9926222729943471</v>
+        <v>0.9862331651385924</v>
       </c>
       <c r="D3">
-        <v>1.006969908760875</v>
+        <v>0.9941372934382913</v>
       </c>
       <c r="E3">
-        <v>1.007173356107415</v>
+        <v>0.9940862168707626</v>
       </c>
       <c r="F3">
-        <v>1.013664518063419</v>
+        <v>0.9648696442695542</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043201383514965</v>
+        <v>1.04111674533588</v>
       </c>
       <c r="J3">
-        <v>1.013316103051455</v>
+        <v>1.007106295731896</v>
       </c>
       <c r="K3">
-        <v>1.017514378362616</v>
+        <v>1.004845742409199</v>
       </c>
       <c r="L3">
-        <v>1.017715267966139</v>
+        <v>1.004795329102625</v>
       </c>
       <c r="M3">
-        <v>1.024125494031856</v>
+        <v>0.975972674147084</v>
       </c>
       <c r="N3">
-        <v>1.01475512814677</v>
+        <v>1.005931419313563</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003795107922577</v>
+        <v>0.9908549474298622</v>
       </c>
       <c r="D4">
-        <v>1.017705430285163</v>
+        <v>0.9983269642077253</v>
       </c>
       <c r="E4">
-        <v>1.017084956002584</v>
+        <v>0.9978990264368469</v>
       </c>
       <c r="F4">
-        <v>1.024414074357709</v>
+        <v>0.9713160207838527</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045380858489082</v>
+        <v>1.042494171790107</v>
       </c>
       <c r="J4">
-        <v>1.023102230148577</v>
+        <v>1.010495513211835</v>
       </c>
       <c r="K4">
-        <v>1.02759476145064</v>
+        <v>1.008445623325816</v>
       </c>
       <c r="L4">
-        <v>1.02698146258759</v>
+        <v>1.008022874672801</v>
       </c>
       <c r="M4">
-        <v>1.034226508623215</v>
+        <v>0.981773424519762</v>
       </c>
       <c r="N4">
-        <v>1.024555152666854</v>
+        <v>1.007089220978461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008307058688161</v>
+        <v>0.9927615411119813</v>
       </c>
       <c r="D5">
-        <v>1.022042561142822</v>
+        <v>1.00005633272999</v>
       </c>
       <c r="E5">
-        <v>1.021090251249276</v>
+        <v>0.9994734466391137</v>
       </c>
       <c r="F5">
-        <v>1.02875825281778</v>
+        <v>0.9739726064533435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046251253678445</v>
+        <v>1.043057503363056</v>
       </c>
       <c r="J5">
-        <v>1.027051020244243</v>
+        <v>1.011891783376312</v>
       </c>
       <c r="K5">
-        <v>1.031663917562107</v>
+        <v>1.009929494779623</v>
       </c>
       <c r="L5">
-        <v>1.030722237752654</v>
+        <v>1.009353470993885</v>
       </c>
       <c r="M5">
-        <v>1.0383053323005</v>
+        <v>0.9841628722743653</v>
       </c>
       <c r="N5">
-        <v>1.028509550497388</v>
+        <v>1.007566058242661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009054506729818</v>
+        <v>0.9930795969158086</v>
       </c>
       <c r="D6">
-        <v>1.02276114548074</v>
+        <v>1.000344882892913</v>
       </c>
       <c r="E6">
-        <v>1.021753913883842</v>
+        <v>0.9997361780634324</v>
       </c>
       <c r="F6">
-        <v>1.029478084664338</v>
+        <v>0.9744156337799544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046394851595786</v>
+        <v>1.043151187931846</v>
       </c>
       <c r="J6">
-        <v>1.027704984014022</v>
+        <v>1.01212459715393</v>
       </c>
       <c r="K6">
-        <v>1.032337910605521</v>
+        <v>1.010176962906082</v>
       </c>
       <c r="L6">
-        <v>1.031341855342692</v>
+        <v>1.009575388572409</v>
       </c>
       <c r="M6">
-        <v>1.038981004566841</v>
+        <v>0.9845612853072427</v>
       </c>
       <c r="N6">
-        <v>1.029164442970731</v>
+        <v>1.007645556844252</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003856090490053</v>
+        <v>0.9908805634874132</v>
       </c>
       <c r="D7">
-        <v>1.017764043289179</v>
+        <v>0.9983501951525454</v>
       </c>
       <c r="E7">
-        <v>1.017139080544717</v>
+        <v>0.9979201735643793</v>
       </c>
       <c r="F7">
-        <v>1.024472777167555</v>
+        <v>0.9713517232508883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045392662271737</v>
+        <v>1.042501759903553</v>
       </c>
       <c r="J7">
-        <v>1.023155614013864</v>
+        <v>1.010514280229583</v>
       </c>
       <c r="K7">
-        <v>1.027649766073019</v>
+        <v>1.008465564558765</v>
       </c>
       <c r="L7">
-        <v>1.027032027247438</v>
+        <v>1.008040755314759</v>
       </c>
       <c r="M7">
-        <v>1.034281638624663</v>
+        <v>0.9818055411893257</v>
       </c>
       <c r="N7">
-        <v>1.024608612343353</v>
+        <v>1.007095630668135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804797287092459</v>
+        <v>0.9813736776004925</v>
       </c>
       <c r="D8">
-        <v>0.9953100170338259</v>
+        <v>0.9897359339489016</v>
       </c>
       <c r="E8">
-        <v>0.9964123998018072</v>
+        <v>0.9900829870587265</v>
       </c>
       <c r="F8">
-        <v>1.001994521344671</v>
+        <v>0.9580804632948593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040799364326103</v>
+        <v>1.039651579848377</v>
       </c>
       <c r="J8">
-        <v>1.002669733971316</v>
+        <v>1.003536341188696</v>
       </c>
       <c r="K8">
-        <v>1.006553894148555</v>
+        <v>1.001056757272556</v>
       </c>
       <c r="L8">
-        <v>1.00764118771975</v>
+        <v>1.001398987658187</v>
       </c>
       <c r="M8">
-        <v>1.013147543184074</v>
+        <v>0.9698598827773703</v>
       </c>
       <c r="N8">
-        <v>1.004093640001382</v>
+        <v>1.004711408608495</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9305241559426318</v>
+        <v>0.9632585900682109</v>
       </c>
       <c r="D9">
-        <v>0.9474291603192861</v>
+        <v>0.9733625302096761</v>
       </c>
       <c r="E9">
-        <v>0.9522674346721753</v>
+        <v>0.9752104045323915</v>
       </c>
       <c r="F9">
-        <v>0.9541199563381707</v>
+        <v>0.9326427115028444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03068394361269</v>
+        <v>1.034059760228744</v>
       </c>
       <c r="J9">
-        <v>0.9587936385017946</v>
+        <v>0.990179000407406</v>
       </c>
       <c r="K9">
-        <v>0.9614369225019563</v>
+        <v>0.9869030905346668</v>
       </c>
       <c r="L9">
-        <v>0.9661855170752766</v>
+        <v>0.988718901520369</v>
       </c>
       <c r="M9">
-        <v>0.968004014912877</v>
+        <v>0.9469321100469669</v>
       </c>
       <c r="N9">
-        <v>0.9601552354436347</v>
+        <v>1.000143895700186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8868565777436308</v>
+        <v>0.950067658204783</v>
       </c>
       <c r="D10">
-        <v>0.9057104754651811</v>
+        <v>0.9614731874514891</v>
       </c>
       <c r="E10">
-        <v>0.9138642000363058</v>
+        <v>0.9644302444437982</v>
       </c>
       <c r="F10">
-        <v>0.912457914535151</v>
+        <v>0.9139553868168715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021729100550134</v>
+        <v>1.029883107388346</v>
       </c>
       <c r="J10">
-        <v>0.920409041633529</v>
+        <v>0.9804126745524411</v>
       </c>
       <c r="K10">
-        <v>0.9220199060954983</v>
+        <v>0.9765747316276928</v>
       </c>
       <c r="L10">
-        <v>0.9299847166631771</v>
+        <v>0.9794728583450851</v>
       </c>
       <c r="M10">
-        <v>0.9286106915185255</v>
+        <v>0.9300738161849137</v>
       </c>
       <c r="N10">
-        <v>0.9217161280450411</v>
+        <v>0.9968032621766734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8632741835994938</v>
+        <v>0.9440370904028073</v>
       </c>
       <c r="D11">
-        <v>0.8832423151747402</v>
+        <v>0.9560469932921258</v>
       </c>
       <c r="E11">
-        <v>0.8932066017691179</v>
+        <v>0.9595157141810063</v>
       </c>
       <c r="F11">
-        <v>0.8900364147049573</v>
+        <v>0.9053550638098863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016915169690159</v>
+        <v>1.02794999651883</v>
       </c>
       <c r="J11">
-        <v>0.8996935972260334</v>
+        <v>0.9759386740019179</v>
       </c>
       <c r="K11">
-        <v>0.9007621060740675</v>
+        <v>0.9718482911486851</v>
       </c>
       <c r="L11">
-        <v>0.9104688109253479</v>
+        <v>0.9752437378312256</v>
       </c>
       <c r="M11">
-        <v>0.9073797284356461</v>
+        <v>0.9223135477546149</v>
       </c>
       <c r="N11">
-        <v>0.9009712653303923</v>
+        <v>0.995273007316235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8533835664769712</v>
+        <v>0.9417435456286636</v>
       </c>
       <c r="D12">
-        <v>0.8738334313131702</v>
+        <v>0.9539848373758159</v>
       </c>
       <c r="E12">
-        <v>0.8845614440404138</v>
+        <v>0.9576489109301748</v>
       </c>
       <c r="F12">
-        <v>0.8806500633835685</v>
+        <v>0.9020737204664888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014908195004388</v>
+        <v>1.027211362646371</v>
       </c>
       <c r="J12">
-        <v>0.8910116774454251</v>
+        <v>0.9742357890073178</v>
       </c>
       <c r="K12">
-        <v>0.8918553372820943</v>
+        <v>0.9700501033138191</v>
       </c>
       <c r="L12">
-        <v>0.9022935194068968</v>
+        <v>0.9736350994216634</v>
       </c>
       <c r="M12">
-        <v>0.8984866974765987</v>
+        <v>0.9193526563825645</v>
       </c>
       <c r="N12">
-        <v>0.8922770162278651</v>
+        <v>0.9946906153189197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.855568241138802</v>
+        <v>0.9422380420107911</v>
       </c>
       <c r="D13">
-        <v>0.8759109307554569</v>
+        <v>0.9544293740519366</v>
       </c>
       <c r="E13">
-        <v>0.886470022710854</v>
+        <v>0.9580512935225948</v>
       </c>
       <c r="F13">
-        <v>0.8827224420754951</v>
+        <v>0.9027816968528556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015350752410639</v>
+        <v>1.027370767532827</v>
       </c>
       <c r="J13">
-        <v>0.8929289819963284</v>
+        <v>0.9746029967574632</v>
       </c>
       <c r="K13">
-        <v>0.8938221842975876</v>
+        <v>0.9704378263971805</v>
       </c>
       <c r="L13">
-        <v>0.9040987511002246</v>
+        <v>0.9739819359803604</v>
       </c>
       <c r="M13">
-        <v>0.900450392028267</v>
+        <v>0.9199914917940895</v>
       </c>
       <c r="N13">
-        <v>0.8941970435711488</v>
+        <v>0.9948161986406983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8624837537441641</v>
+        <v>0.9438486332081234</v>
       </c>
       <c r="D14">
-        <v>0.8824900592610889</v>
+        <v>0.9558775171165133</v>
       </c>
       <c r="E14">
-        <v>0.8925152844339029</v>
+        <v>0.9593622740888328</v>
       </c>
       <c r="F14">
-        <v>0.8892858975064299</v>
+        <v>0.9050856650203253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016754470207505</v>
+        <v>1.027889372846807</v>
       </c>
       <c r="J14">
-        <v>0.8989996034951824</v>
+        <v>0.9757987772938028</v>
       </c>
       <c r="K14">
-        <v>0.9000500895767828</v>
+        <v>0.9717005490948319</v>
       </c>
       <c r="L14">
-        <v>0.9098152329581065</v>
+        <v>0.975111562299207</v>
       </c>
       <c r="M14">
-        <v>0.9066687586583824</v>
+        <v>0.9220704580686963</v>
       </c>
       <c r="N14">
-        <v>0.9002762860488415</v>
+        <v>0.995225160968305</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8665748205708403</v>
+        <v>0.9448336941724544</v>
       </c>
       <c r="D15">
-        <v>0.8863841449208507</v>
+        <v>0.9567634278036334</v>
       </c>
       <c r="E15">
-        <v>0.8960941464326034</v>
+        <v>0.9601643957078015</v>
       </c>
       <c r="F15">
-        <v>0.8931711027418401</v>
+        <v>0.9064933686277374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017586741979515</v>
+        <v>1.028206112719468</v>
       </c>
       <c r="J15">
-        <v>0.9025918170301589</v>
+        <v>0.9765299599043363</v>
       </c>
       <c r="K15">
-        <v>0.9037356881964094</v>
+        <v>0.9724727679034039</v>
       </c>
       <c r="L15">
-        <v>0.9131984049819141</v>
+        <v>0.9758024320732632</v>
       </c>
       <c r="M15">
-        <v>0.910349038498112</v>
+        <v>0.9233406861696127</v>
       </c>
       <c r="N15">
-        <v>0.9038736009390701</v>
+        <v>0.9954752364329131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8882947154756732</v>
+        <v>0.95046071173644</v>
       </c>
       <c r="D16">
-        <v>0.9070821502841764</v>
+        <v>0.961827052655358</v>
       </c>
       <c r="E16">
-        <v>0.9151259251561467</v>
+        <v>0.9647508608113656</v>
       </c>
       <c r="F16">
-        <v>0.9138270835392081</v>
+        <v>0.914514604240636</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022023633178823</v>
+        <v>1.030008624003311</v>
       </c>
       <c r="J16">
-        <v>0.9216728599791832</v>
+        <v>0.9807040914724203</v>
       </c>
       <c r="K16">
-        <v>0.9233171092391919</v>
+        <v>0.9768826968887461</v>
       </c>
       <c r="L16">
-        <v>0.9311757984484371</v>
+        <v>0.9797484641048888</v>
       </c>
       <c r="M16">
-        <v>0.9299065484096009</v>
+        <v>0.9305783913126898</v>
       </c>
       <c r="N16">
-        <v>0.9229817411577086</v>
+        <v>0.9969029412891417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9004645863089999</v>
+        <v>0.9539013582020176</v>
       </c>
       <c r="D17">
-        <v>0.918696075418451</v>
+        <v>0.9649257190374237</v>
       </c>
       <c r="E17">
-        <v>0.9258115268958363</v>
+        <v>0.9675589993860655</v>
       </c>
       <c r="F17">
-        <v>0.9254214621264154</v>
+        <v>0.9194032134590564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024518677788742</v>
+        <v>1.031104710309107</v>
       </c>
       <c r="J17">
-        <v>0.9323691679932358</v>
+        <v>0.9832540339299092</v>
       </c>
       <c r="K17">
-        <v>0.9342974881872453</v>
+        <v>0.9795780060214159</v>
       </c>
       <c r="L17">
-        <v>0.9412586691190354</v>
+        <v>0.9821607950323233</v>
       </c>
       <c r="M17">
-        <v>0.9408769798698382</v>
+        <v>0.9349891527275407</v>
       </c>
       <c r="N17">
-        <v>0.9336932391560242</v>
+        <v>0.9977751642354268</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9071503890788178</v>
+        <v>0.955877895567016</v>
       </c>
       <c r="D18">
-        <v>0.925081247338311</v>
+        <v>0.9667066610294368</v>
       </c>
       <c r="E18">
-        <v>0.9316882844776896</v>
+        <v>0.9691734647785695</v>
       </c>
       <c r="F18">
-        <v>0.9317972009480262</v>
+        <v>0.9222063818940816</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025890608197516</v>
+        <v>1.031732159456083</v>
       </c>
       <c r="J18">
-        <v>0.9382462900995358</v>
+        <v>0.9847180420348275</v>
       </c>
       <c r="K18">
-        <v>0.9403319188998277</v>
+        <v>0.9811259413079183</v>
       </c>
       <c r="L18">
-        <v>0.9468004392156297</v>
+        <v>0.9835464009816411</v>
       </c>
       <c r="M18">
-        <v>0.9469070939868843</v>
+        <v>0.9375181463798733</v>
       </c>
       <c r="N18">
-        <v>0.9395787074498309</v>
+        <v>0.9982759443000486</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9093679436399316</v>
+        <v>0.9565468541898082</v>
       </c>
       <c r="D19">
-        <v>0.9271998163790243</v>
+        <v>0.9673095627806513</v>
       </c>
       <c r="E19">
-        <v>0.9336384675642413</v>
+        <v>0.969720092266051</v>
       </c>
       <c r="F19">
-        <v>0.933912852942377</v>
+        <v>0.9231542858897336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026345710073817</v>
+        <v>1.031944140207973</v>
       </c>
       <c r="J19">
-        <v>0.9401956988376619</v>
+        <v>0.9852133902256756</v>
       </c>
       <c r="K19">
-        <v>0.9423337093927953</v>
+        <v>0.98164976494324</v>
       </c>
       <c r="L19">
-        <v>0.9486388893895099</v>
+        <v>0.9840153228540895</v>
       </c>
       <c r="M19">
-        <v>0.9489076407816366</v>
+        <v>0.9383733024740657</v>
       </c>
       <c r="N19">
-        <v>0.9415308845719653</v>
+        <v>0.9984453838987971</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8992035598251629</v>
+        <v>0.953535384530025</v>
       </c>
       <c r="D20">
-        <v>0.9174921265926487</v>
+        <v>0.9645960305460622</v>
       </c>
       <c r="E20">
-        <v>0.9247035965342659</v>
+        <v>0.9672601693094376</v>
       </c>
       <c r="F20">
-        <v>0.9242193981395375</v>
+        <v>0.9188837740313965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02425997709376</v>
+        <v>1.030988351880799</v>
       </c>
       <c r="J20">
-        <v>0.9312607222813799</v>
+        <v>0.9829828905398487</v>
       </c>
       <c r="K20">
-        <v>0.9331594738671185</v>
+        <v>0.9792913565543763</v>
       </c>
       <c r="L20">
-        <v>0.9402136096823871</v>
+        <v>0.9819042209397695</v>
       </c>
       <c r="M20">
-        <v>0.9397398731081065</v>
+        <v>0.9345205037971628</v>
       </c>
       <c r="N20">
-        <v>0.9325832193241174</v>
+        <v>0.9976824170290152</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8604841722299871</v>
+        <v>0.9433758819033025</v>
       </c>
       <c r="D21">
-        <v>0.8805872970562532</v>
+        <v>0.9554524054519393</v>
       </c>
       <c r="E21">
-        <v>0.8907667552470762</v>
+        <v>0.9589774018948705</v>
       </c>
       <c r="F21">
-        <v>0.8873875824065811</v>
+        <v>0.9044096936113606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016348170901169</v>
+        <v>1.02773724158316</v>
       </c>
       <c r="J21">
-        <v>0.8972440987182628</v>
+        <v>0.9754478203032524</v>
       </c>
       <c r="K21">
-        <v>0.8982490341181114</v>
+        <v>0.9713299232133653</v>
       </c>
       <c r="L21">
-        <v>0.9081620267051392</v>
+        <v>0.974779992249983</v>
       </c>
       <c r="M21">
-        <v>0.9048703914150521</v>
+        <v>0.9214605008421324</v>
       </c>
       <c r="N21">
-        <v>0.8985182882537794</v>
+        <v>0.9951051304146334</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.828897721829524</v>
+        <v>0.9366749674467243</v>
       </c>
       <c r="D22">
-        <v>0.8505802531527572</v>
+        <v>0.9494306095356243</v>
       </c>
       <c r="E22">
-        <v>0.8632105132714282</v>
+        <v>0.9535278857507691</v>
       </c>
       <c r="F22">
-        <v>0.8574595840711426</v>
+        <v>0.8948003109419803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009982690552916</v>
+        <v>1.025572825606472</v>
       </c>
       <c r="J22">
-        <v>0.8695406031575036</v>
+        <v>0.9704700915730297</v>
       </c>
       <c r="K22">
-        <v>0.8698333599329554</v>
+        <v>0.9660751324470536</v>
       </c>
       <c r="L22">
-        <v>0.882084529987021</v>
+        <v>0.9700798158460865</v>
       </c>
       <c r="M22">
-        <v>0.8765043066550957</v>
+        <v>0.9127897042308007</v>
       </c>
       <c r="N22">
-        <v>0.8707754505516885</v>
+        <v>0.9934028708292818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.846632704576333</v>
+        <v>0.940259091499589</v>
       </c>
       <c r="D23">
-        <v>0.8674165757472809</v>
+        <v>0.9526505957767505</v>
       </c>
       <c r="E23">
-        <v>0.8786673900105714</v>
+        <v>0.9564413307737277</v>
       </c>
       <c r="F23">
-        <v>0.8742495339241482</v>
+        <v>0.899946703738709</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013543590710305</v>
+        <v>1.026732343340735</v>
       </c>
       <c r="J23">
-        <v>0.8850885422134671</v>
+        <v>0.97313325567253</v>
       </c>
       <c r="K23">
-        <v>0.8857795332246489</v>
+        <v>0.9688860897560575</v>
       </c>
       <c r="L23">
-        <v>0.8967172757969963</v>
+        <v>0.9725938878994096</v>
       </c>
       <c r="M23">
-        <v>0.8924210428605631</v>
+        <v>0.9174333727892098</v>
       </c>
       <c r="N23">
-        <v>0.8863454694644851</v>
+        <v>0.9943135644263154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8997746132177806</v>
+        <v>0.9537008456063382</v>
       </c>
       <c r="D24">
-        <v>0.9180373175832762</v>
+        <v>0.964745083990468</v>
       </c>
       <c r="E24">
-        <v>0.9252053008146147</v>
+        <v>0.9673952699878021</v>
       </c>
       <c r="F24">
-        <v>0.924763731482239</v>
+        <v>0.9191186347765534</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024377125811132</v>
+        <v>1.031040965819673</v>
       </c>
       <c r="J24">
-        <v>0.9317626772781269</v>
+        <v>0.9831054803549891</v>
       </c>
       <c r="K24">
-        <v>0.9336748150195855</v>
+        <v>0.979420955551773</v>
       </c>
       <c r="L24">
-        <v>0.9406868551187894</v>
+        <v>0.9820202217803172</v>
       </c>
       <c r="M24">
-        <v>0.9402547996598033</v>
+        <v>0.9347324005415468</v>
       </c>
       <c r="N24">
-        <v>0.9330858871545344</v>
+        <v>0.9977243500347042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9448127482712135</v>
+        <v>0.9681219293721036</v>
       </c>
       <c r="D25">
-        <v>0.9611087670667388</v>
+        <v>0.9777530621195099</v>
       </c>
       <c r="E25">
-        <v>0.9648723329646334</v>
+        <v>0.9791954542407744</v>
       </c>
       <c r="F25">
-        <v>0.9677906719179549</v>
+        <v>0.9394947534104</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033603253027166</v>
+        <v>1.035579075175168</v>
       </c>
       <c r="J25">
-        <v>0.9713516459187148</v>
+        <v>0.9937718947089474</v>
       </c>
       <c r="K25">
-        <v>0.974342394502438</v>
+        <v>0.9907068382252403</v>
       </c>
       <c r="L25">
-        <v>0.9780415903381525</v>
+        <v>0.9921255544176306</v>
       </c>
       <c r="M25">
-        <v>0.9809104601545368</v>
+        <v>0.9531110524730056</v>
       </c>
       <c r="N25">
-        <v>0.9727310766715106</v>
+        <v>1.001372761154964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9788400864412922</v>
+        <v>1.025460861056469</v>
       </c>
       <c r="D2">
-        <v>0.987442730068454</v>
+        <v>1.028105407604875</v>
       </c>
       <c r="E2">
-        <v>0.987998114347311</v>
+        <v>1.025790516327879</v>
       </c>
       <c r="F2">
-        <v>0.9545356695217451</v>
+        <v>1.023960685446972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038881295813225</v>
+        <v>1.030388344066191</v>
       </c>
       <c r="J2">
-        <v>1.001672646838019</v>
+        <v>1.030629755629894</v>
       </c>
       <c r="K2">
-        <v>0.9990798248051835</v>
+        <v>1.030923192599291</v>
       </c>
       <c r="L2">
-        <v>0.9996272261667174</v>
+        <v>1.02861505614883</v>
       </c>
       <c r="M2">
-        <v>0.9666669616663719</v>
+        <v>1.026790588204794</v>
       </c>
       <c r="N2">
-        <v>1.004074343906951</v>
+        <v>1.014159422784409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9862331651385924</v>
+        <v>1.026867341249778</v>
       </c>
       <c r="D3">
-        <v>0.9941372934382913</v>
+        <v>1.029424797213447</v>
       </c>
       <c r="E3">
-        <v>0.9940862168707626</v>
+        <v>1.026996600517514</v>
       </c>
       <c r="F3">
-        <v>0.9648696442695542</v>
+        <v>1.026010072726327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04111674533588</v>
+        <v>1.030683074228822</v>
       </c>
       <c r="J3">
-        <v>1.007106295731896</v>
+        <v>1.031673222656614</v>
       </c>
       <c r="K3">
-        <v>1.004845742409199</v>
+        <v>1.032049067396704</v>
       </c>
       <c r="L3">
-        <v>1.004795329102625</v>
+        <v>1.029627436518428</v>
       </c>
       <c r="M3">
-        <v>0.975972674147084</v>
+        <v>1.028643585896856</v>
       </c>
       <c r="N3">
-        <v>1.005931419313563</v>
+        <v>1.014511244074258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9908549474298622</v>
+        <v>1.0277750418129</v>
       </c>
       <c r="D4">
-        <v>0.9983269642077253</v>
+        <v>1.030276484227645</v>
       </c>
       <c r="E4">
-        <v>0.9978990264368469</v>
+        <v>1.027775288599072</v>
       </c>
       <c r="F4">
-        <v>0.9713160207838527</v>
+        <v>1.027333302738543</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042494171790107</v>
+        <v>1.030870812285324</v>
       </c>
       <c r="J4">
-        <v>1.010495513211835</v>
+        <v>1.032345655912636</v>
       </c>
       <c r="K4">
-        <v>1.008445623325816</v>
+        <v>1.032775009804631</v>
       </c>
       <c r="L4">
-        <v>1.008022874672801</v>
+        <v>1.03028023224882</v>
       </c>
       <c r="M4">
-        <v>0.981773424519762</v>
+        <v>1.02983938402983</v>
       </c>
       <c r="N4">
-        <v>1.007089220978461</v>
+        <v>1.014737793203968</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9927615411119813</v>
+        <v>1.02815607688255</v>
       </c>
       <c r="D5">
-        <v>1.00005633272999</v>
+        <v>1.030634051374047</v>
       </c>
       <c r="E5">
-        <v>0.9994734466391137</v>
+        <v>1.028102241899186</v>
       </c>
       <c r="F5">
-        <v>0.9739726064533435</v>
+        <v>1.027888922542228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043057503363056</v>
+        <v>1.030949028163207</v>
       </c>
       <c r="J5">
-        <v>1.011891783376312</v>
+        <v>1.032627693080332</v>
       </c>
       <c r="K5">
-        <v>1.009929494779623</v>
+        <v>1.03307958698807</v>
       </c>
       <c r="L5">
-        <v>1.009353470993885</v>
+        <v>1.030554127557015</v>
       </c>
       <c r="M5">
-        <v>0.9841628722743653</v>
+        <v>1.030341344766503</v>
       </c>
       <c r="N5">
-        <v>1.007566058242661</v>
+        <v>1.014832772720897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9930795969158086</v>
+        <v>1.028220021636942</v>
       </c>
       <c r="D6">
-        <v>1.000344882892913</v>
+        <v>1.030694060427603</v>
       </c>
       <c r="E6">
-        <v>0.9997361780634324</v>
+        <v>1.028157115115534</v>
       </c>
       <c r="F6">
-        <v>0.9744156337799544</v>
+        <v>1.027982175033278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043151187931846</v>
+        <v>1.030962119431945</v>
       </c>
       <c r="J6">
-        <v>1.01212459715393</v>
+        <v>1.032675010223273</v>
       </c>
       <c r="K6">
-        <v>1.010176962906082</v>
+        <v>1.033130691332289</v>
       </c>
       <c r="L6">
-        <v>1.009575388572409</v>
+        <v>1.030600084299744</v>
       </c>
       <c r="M6">
-        <v>0.9845612853072427</v>
+        <v>1.030425582527825</v>
       </c>
       <c r="N6">
-        <v>1.007645556844252</v>
+        <v>1.014848704916755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9908805634874132</v>
+        <v>1.027780135420362</v>
       </c>
       <c r="D7">
-        <v>0.9983501951525454</v>
+        <v>1.030281263942022</v>
       </c>
       <c r="E7">
-        <v>0.9979201735643793</v>
+        <v>1.02777965895669</v>
       </c>
       <c r="F7">
-        <v>0.9713517232508883</v>
+        <v>1.027340729551889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042501759903553</v>
+        <v>1.030871860193597</v>
       </c>
       <c r="J7">
-        <v>1.010514280229583</v>
+        <v>1.032349427067536</v>
       </c>
       <c r="K7">
-        <v>1.008465564558765</v>
+        <v>1.032779081964063</v>
       </c>
       <c r="L7">
-        <v>1.008040755314759</v>
+        <v>1.03028389416552</v>
       </c>
       <c r="M7">
-        <v>0.9818055411893257</v>
+        <v>1.029846094191003</v>
       </c>
       <c r="N7">
-        <v>1.007095630668135</v>
+        <v>1.014739063350599</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9813736776004925</v>
+        <v>1.025936687143139</v>
       </c>
       <c r="D8">
-        <v>0.9897359339489016</v>
+        <v>1.028551729923946</v>
       </c>
       <c r="E8">
-        <v>0.9900829870587265</v>
+        <v>1.026198480229262</v>
       </c>
       <c r="F8">
-        <v>0.9580804632948593</v>
+        <v>1.024653889107603</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039651579848377</v>
+        <v>1.03048856629777</v>
       </c>
       <c r="J8">
-        <v>1.003536341188696</v>
+        <v>1.030982975784741</v>
       </c>
       <c r="K8">
-        <v>1.001056757272556</v>
+        <v>1.031304224543661</v>
       </c>
       <c r="L8">
-        <v>1.001398987658187</v>
+        <v>1.028957671172283</v>
       </c>
       <c r="M8">
-        <v>0.9698598827773703</v>
+        <v>1.027417493441487</v>
       </c>
       <c r="N8">
-        <v>1.004711408608495</v>
+        <v>1.014278552145158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9632585900682109</v>
+        <v>1.022669613712598</v>
       </c>
       <c r="D9">
-        <v>0.9733625302096761</v>
+        <v>1.025488044742691</v>
       </c>
       <c r="E9">
-        <v>0.9752104045323915</v>
+        <v>1.023398692957669</v>
       </c>
       <c r="F9">
-        <v>0.9326427115028444</v>
+        <v>1.019896579310227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034059760228744</v>
+        <v>1.02979028524567</v>
       </c>
       <c r="J9">
-        <v>0.990179000407406</v>
+        <v>1.02855366593329</v>
       </c>
       <c r="K9">
-        <v>0.9869030905346668</v>
+        <v>1.028685299552754</v>
       </c>
       <c r="L9">
-        <v>0.988718901520369</v>
+        <v>1.026602933319814</v>
       </c>
       <c r="M9">
-        <v>0.9469321100469669</v>
+        <v>1.023112599173195</v>
       </c>
       <c r="N9">
-        <v>1.000143895700186</v>
+        <v>1.013458524035746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.950067658204783</v>
+        <v>1.020478430348019</v>
       </c>
       <c r="D10">
-        <v>0.9614731874514891</v>
+        <v>1.023434314755208</v>
       </c>
       <c r="E10">
-        <v>0.9644302444437982</v>
+        <v>1.021522626627981</v>
       </c>
       <c r="F10">
-        <v>0.9139553868168715</v>
+        <v>1.016708554406316</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029883107388346</v>
+        <v>1.029309238037926</v>
       </c>
       <c r="J10">
-        <v>0.9804126745524411</v>
+        <v>1.026919264336067</v>
       </c>
       <c r="K10">
-        <v>0.9765747316276928</v>
+        <v>1.026925418105565</v>
       </c>
       <c r="L10">
-        <v>0.9794728583450851</v>
+        <v>1.025020761336469</v>
       </c>
       <c r="M10">
-        <v>0.9300738161849137</v>
+        <v>1.020224525301471</v>
       </c>
       <c r="N10">
-        <v>0.9968032621766734</v>
+        <v>1.012905945977901</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9440370904028073</v>
+        <v>1.019526379405852</v>
       </c>
       <c r="D11">
-        <v>0.9560469932921258</v>
+        <v>1.022542240738586</v>
       </c>
       <c r="E11">
-        <v>0.9595157141810063</v>
+        <v>1.020707908557985</v>
       </c>
       <c r="F11">
-        <v>0.9053550638098863</v>
+        <v>1.015323928820687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02794999651883</v>
+        <v>1.0290972219662</v>
       </c>
       <c r="J11">
-        <v>0.9759386740019179</v>
+        <v>1.026207925872142</v>
       </c>
       <c r="K11">
-        <v>0.9718482911486851</v>
+        <v>1.026159962093659</v>
       </c>
       <c r="L11">
-        <v>0.9752437378312256</v>
+        <v>1.024332643874812</v>
       </c>
       <c r="M11">
-        <v>0.9223135477546149</v>
+        <v>1.018969413376775</v>
       </c>
       <c r="N11">
-        <v>0.995273007316235</v>
+        <v>1.012665243155395</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9417435456286636</v>
+        <v>1.019172245155697</v>
       </c>
       <c r="D12">
-        <v>0.9539848373758159</v>
+        <v>1.02221045493682</v>
       </c>
       <c r="E12">
-        <v>0.9576489109301748</v>
+        <v>1.020404921554816</v>
       </c>
       <c r="F12">
-        <v>0.9020737204664888</v>
+        <v>1.014808964775163</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027211362646371</v>
+        <v>1.029017907853635</v>
       </c>
       <c r="J12">
-        <v>0.9742357890073178</v>
+        <v>1.025943148749598</v>
       </c>
       <c r="K12">
-        <v>0.9700501033138191</v>
+        <v>1.025875115416424</v>
       </c>
       <c r="L12">
-        <v>0.9736350994216634</v>
+        <v>1.024076583740584</v>
       </c>
       <c r="M12">
-        <v>0.9193526563825645</v>
+        <v>1.018502503472026</v>
       </c>
       <c r="N12">
-        <v>0.9946906153189197</v>
+        <v>1.012575617263222</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9422380420107911</v>
+        <v>1.019248230968961</v>
       </c>
       <c r="D13">
-        <v>0.9544293740519366</v>
+        <v>1.022281643725536</v>
       </c>
       <c r="E13">
-        <v>0.9580512935225948</v>
+        <v>1.020469929925075</v>
       </c>
       <c r="F13">
-        <v>0.9027816968528556</v>
+        <v>1.014919456207856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027370767532827</v>
+        <v>1.029034946477619</v>
       </c>
       <c r="J13">
-        <v>0.9746029967574632</v>
+        <v>1.025999969567492</v>
       </c>
       <c r="K13">
-        <v>0.9704378263971805</v>
+        <v>1.025936239774401</v>
       </c>
       <c r="L13">
-        <v>0.9739819359803604</v>
+        <v>1.024131530574379</v>
       </c>
       <c r="M13">
-        <v>0.9199914917940895</v>
+        <v>1.018602689491866</v>
       </c>
       <c r="N13">
-        <v>0.9948161986406983</v>
+        <v>1.012594852239448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9438486332081234</v>
+        <v>1.019497116826543</v>
       </c>
       <c r="D14">
-        <v>0.9558775171165133</v>
+        <v>1.022514824045593</v>
       </c>
       <c r="E14">
-        <v>0.9593622740888328</v>
+        <v>1.020682871041897</v>
       </c>
       <c r="F14">
-        <v>0.9050856650203253</v>
+        <v>1.015281375175857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027889372846807</v>
+        <v>1.029090677317684</v>
       </c>
       <c r="J14">
-        <v>0.9757987772938028</v>
+        <v>1.026186050671855</v>
       </c>
       <c r="K14">
-        <v>0.9717005490948319</v>
+        <v>1.026136427284664</v>
       </c>
       <c r="L14">
-        <v>0.975111562299207</v>
+        <v>1.024311487349026</v>
       </c>
       <c r="M14">
-        <v>0.9220704580686963</v>
+        <v>1.018930832970828</v>
       </c>
       <c r="N14">
-        <v>0.995225160968305</v>
+        <v>1.012657839118068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9448336941724544</v>
+        <v>1.019650397005328</v>
       </c>
       <c r="D15">
-        <v>0.9567634278036334</v>
+        <v>1.022658436889168</v>
       </c>
       <c r="E15">
-        <v>0.9601643957078015</v>
+        <v>1.020814022543584</v>
       </c>
       <c r="F15">
-        <v>0.9064933686277374</v>
+        <v>1.015504278248097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028206112719468</v>
+        <v>1.029124940376358</v>
       </c>
       <c r="J15">
-        <v>0.9765299599043363</v>
+        <v>1.02630062766313</v>
       </c>
       <c r="K15">
-        <v>0.9724727679034039</v>
+        <v>1.026259699942904</v>
       </c>
       <c r="L15">
-        <v>0.9758024320732632</v>
+        <v>1.024422303108812</v>
       </c>
       <c r="M15">
-        <v>0.9233406861696127</v>
+        <v>1.019132918891504</v>
       </c>
       <c r="N15">
-        <v>0.9954752364329131</v>
+        <v>1.012696618419684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.95046071173644</v>
+        <v>1.020541545316506</v>
       </c>
       <c r="D16">
-        <v>0.961827052655358</v>
+        <v>1.023493459039086</v>
       </c>
       <c r="E16">
-        <v>0.9647508608113656</v>
+        <v>1.021576646146386</v>
       </c>
       <c r="F16">
-        <v>0.914514604240636</v>
+        <v>1.016800357216923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030008624003311</v>
+        <v>1.029323230218519</v>
       </c>
       <c r="J16">
-        <v>0.9807040914724203</v>
+        <v>1.026966396268769</v>
       </c>
       <c r="K16">
-        <v>0.9768826968887461</v>
+        <v>1.026976146164137</v>
       </c>
       <c r="L16">
-        <v>0.9797484641048888</v>
+        <v>1.025066364982626</v>
       </c>
       <c r="M16">
-        <v>0.9305783913126898</v>
+        <v>1.020307725165656</v>
       </c>
       <c r="N16">
-        <v>0.9969029412891417</v>
+        <v>1.01292189019804</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9539013582020176</v>
+        <v>1.021099659996991</v>
       </c>
       <c r="D17">
-        <v>0.9649257190374237</v>
+        <v>1.024016491077711</v>
       </c>
       <c r="E17">
-        <v>0.9675589993860655</v>
+        <v>1.022054379558871</v>
       </c>
       <c r="F17">
-        <v>0.9194032134590564</v>
+        <v>1.017612215451156</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031104710309107</v>
+        <v>1.029446614223638</v>
       </c>
       <c r="J17">
-        <v>0.9832540339299092</v>
+        <v>1.027383036879838</v>
       </c>
       <c r="K17">
-        <v>0.9795780060214159</v>
+        <v>1.027424633104347</v>
       </c>
       <c r="L17">
-        <v>0.9821607950323233</v>
+        <v>1.025469552094996</v>
       </c>
       <c r="M17">
-        <v>0.9349891527275407</v>
+        <v>1.021043415469129</v>
       </c>
       <c r="N17">
-        <v>0.9977751642354268</v>
+        <v>1.013062811594417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.955877895567016</v>
+        <v>1.021424885642954</v>
       </c>
       <c r="D18">
-        <v>0.9667066610294368</v>
+        <v>1.024321297773496</v>
       </c>
       <c r="E18">
-        <v>0.9691734647785695</v>
+        <v>1.022332805386749</v>
       </c>
       <c r="F18">
-        <v>0.9222063818940816</v>
+        <v>1.018085355938566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031732159456083</v>
+        <v>1.02951822336519</v>
       </c>
       <c r="J18">
-        <v>0.9847180420348275</v>
+        <v>1.027625706479233</v>
       </c>
       <c r="K18">
-        <v>0.9811259413079183</v>
+        <v>1.027685898998602</v>
       </c>
       <c r="L18">
-        <v>0.9835464009816411</v>
+        <v>1.025704432841733</v>
       </c>
       <c r="M18">
-        <v>0.9375181463798733</v>
+        <v>1.021472092923163</v>
       </c>
       <c r="N18">
-        <v>0.9982759443000486</v>
+        <v>1.013144870605065</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9565468541898082</v>
+        <v>1.021535726396809</v>
       </c>
       <c r="D19">
-        <v>0.9673095627806513</v>
+        <v>1.024425183640337</v>
       </c>
       <c r="E19">
-        <v>0.969720092266051</v>
+        <v>1.022427702984039</v>
       </c>
       <c r="F19">
-        <v>0.9231542858897336</v>
+        <v>1.018246617006771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031944140207973</v>
+        <v>1.029542579489485</v>
       </c>
       <c r="J19">
-        <v>0.9852133902256756</v>
+        <v>1.027708391467503</v>
       </c>
       <c r="K19">
-        <v>0.98164976494324</v>
+        <v>1.027774928393194</v>
       </c>
       <c r="L19">
-        <v>0.9840153228540895</v>
+        <v>1.025784471906588</v>
       </c>
       <c r="M19">
-        <v>0.9383733024740657</v>
+        <v>1.021618187148174</v>
       </c>
       <c r="N19">
-        <v>0.9984453838987971</v>
+        <v>1.01317282727674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.953535384530025</v>
+        <v>1.021039812051215</v>
       </c>
       <c r="D20">
-        <v>0.9645960305460622</v>
+        <v>1.023960402589239</v>
       </c>
       <c r="E20">
-        <v>0.9672601693094376</v>
+        <v>1.022003146928514</v>
       </c>
       <c r="F20">
-        <v>0.9188837740313965</v>
+        <v>1.017525152563383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030988351880799</v>
+        <v>1.029433413407948</v>
       </c>
       <c r="J20">
-        <v>0.9829828905398487</v>
+        <v>1.027338371531751</v>
       </c>
       <c r="K20">
-        <v>0.9792913565543763</v>
+        <v>1.027376548790381</v>
       </c>
       <c r="L20">
-        <v>0.9819042209397695</v>
+        <v>1.025426324139681</v>
       </c>
       <c r="M20">
-        <v>0.9345205037971628</v>
+        <v>1.020964528342913</v>
       </c>
       <c r="N20">
-        <v>0.9976824170290152</v>
+        <v>1.013047706362755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9433758819033025</v>
+        <v>1.019423840042146</v>
       </c>
       <c r="D21">
-        <v>0.9554524054519393</v>
+        <v>1.022446170197044</v>
       </c>
       <c r="E21">
-        <v>0.9589774018948705</v>
+        <v>1.020620175319658</v>
       </c>
       <c r="F21">
-        <v>0.9044096936113606</v>
+        <v>1.015174817257242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02773724158316</v>
+        <v>1.029074281510762</v>
       </c>
       <c r="J21">
-        <v>0.9754478203032524</v>
+        <v>1.026131269797707</v>
       </c>
       <c r="K21">
-        <v>0.9713299232133653</v>
+        <v>1.026077491541926</v>
       </c>
       <c r="L21">
-        <v>0.974779992249983</v>
+        <v>1.024258507400647</v>
       </c>
       <c r="M21">
-        <v>0.9214605008421324</v>
+        <v>1.018834222537514</v>
       </c>
       <c r="N21">
-        <v>0.9951051304146334</v>
+        <v>1.012639297097392</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9366749674467243</v>
+        <v>1.01840491497372</v>
       </c>
       <c r="D22">
-        <v>0.9494306095356243</v>
+        <v>1.021491620592049</v>
       </c>
       <c r="E22">
-        <v>0.9535278857507691</v>
+        <v>1.019748533358484</v>
       </c>
       <c r="F22">
-        <v>0.8948003109419803</v>
+        <v>1.013693281688119</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025572825606472</v>
+        <v>1.028845228459934</v>
       </c>
       <c r="J22">
-        <v>0.9704700915730297</v>
+        <v>1.025369105363321</v>
       </c>
       <c r="K22">
-        <v>0.9660751324470536</v>
+        <v>1.025257696642524</v>
       </c>
       <c r="L22">
-        <v>0.9700798158460865</v>
+        <v>1.023521573776931</v>
       </c>
       <c r="M22">
-        <v>0.9127897042308007</v>
+        <v>1.017490722695624</v>
       </c>
       <c r="N22">
-        <v>0.9934028708292818</v>
+        <v>1.01238125040345</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.940259091499589</v>
+        <v>1.018945345045094</v>
       </c>
       <c r="D23">
-        <v>0.9526505957767505</v>
+        <v>1.021997884883135</v>
       </c>
       <c r="E23">
-        <v>0.9564413307737277</v>
+        <v>1.020210810399503</v>
       </c>
       <c r="F23">
-        <v>0.899946703738709</v>
+        <v>1.014479038385813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026732343340735</v>
+        <v>1.02896696316997</v>
       </c>
       <c r="J23">
-        <v>0.97313325567253</v>
+        <v>1.025773450516331</v>
       </c>
       <c r="K23">
-        <v>0.9688860897560575</v>
+        <v>1.025692575318091</v>
       </c>
       <c r="L23">
-        <v>0.9725938878994096</v>
+        <v>1.023912493037102</v>
       </c>
       <c r="M23">
-        <v>0.9174333727892098</v>
+        <v>1.018203332279304</v>
       </c>
       <c r="N23">
-        <v>0.9943135644263154</v>
+        <v>1.012518166579709</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9537008456063382</v>
+        <v>1.021066855729624</v>
       </c>
       <c r="D24">
-        <v>0.964745083990468</v>
+        <v>1.023985747394305</v>
       </c>
       <c r="E24">
-        <v>0.9673952699878021</v>
+        <v>1.02202629745348</v>
       </c>
       <c r="F24">
-        <v>0.9191186347765534</v>
+        <v>1.017564493778613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031040965819673</v>
+        <v>1.029439379396641</v>
       </c>
       <c r="J24">
-        <v>0.9831054803549891</v>
+        <v>1.027358554960933</v>
       </c>
       <c r="K24">
-        <v>0.979420955551773</v>
+        <v>1.027398277038602</v>
       </c>
       <c r="L24">
-        <v>0.9820202217803172</v>
+        <v>1.025445857892675</v>
       </c>
       <c r="M24">
-        <v>0.9347324005415468</v>
+        <v>1.021000175393387</v>
       </c>
       <c r="N24">
-        <v>0.9977243500347042</v>
+        <v>1.013054532193361</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9681219293721036</v>
+        <v>1.023516503063064</v>
       </c>
       <c r="D25">
-        <v>0.9777530621195099</v>
+        <v>1.026282030831212</v>
       </c>
       <c r="E25">
-        <v>0.9791954542407744</v>
+        <v>1.024124154796602</v>
       </c>
       <c r="F25">
-        <v>0.9394947534104</v>
+        <v>1.021129275707476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035579075175168</v>
+        <v>1.0299735330289</v>
       </c>
       <c r="J25">
-        <v>0.9937718947089474</v>
+        <v>1.029184287537179</v>
       </c>
       <c r="K25">
-        <v>0.9907068382252403</v>
+        <v>1.029364775925342</v>
       </c>
       <c r="L25">
-        <v>0.9921255544176306</v>
+        <v>1.027213835790746</v>
       </c>
       <c r="M25">
-        <v>0.9531110524730056</v>
+        <v>1.024228636120656</v>
       </c>
       <c r="N25">
-        <v>1.001372761154964</v>
+        <v>1.013671548825379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025460861056469</v>
+        <v>0.9788400864412922</v>
       </c>
       <c r="D2">
-        <v>1.028105407604875</v>
+        <v>0.9874427300684537</v>
       </c>
       <c r="E2">
-        <v>1.025790516327879</v>
+        <v>0.9879981143473111</v>
       </c>
       <c r="F2">
-        <v>1.023960685446972</v>
+        <v>0.9545356695217451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030388344066191</v>
+        <v>1.038881295813225</v>
       </c>
       <c r="J2">
-        <v>1.030629755629894</v>
+        <v>1.001672646838019</v>
       </c>
       <c r="K2">
-        <v>1.030923192599291</v>
+        <v>0.9990798248051833</v>
       </c>
       <c r="L2">
-        <v>1.02861505614883</v>
+        <v>0.9996272261667173</v>
       </c>
       <c r="M2">
-        <v>1.026790588204794</v>
+        <v>0.966666961666372</v>
       </c>
       <c r="N2">
-        <v>1.014159422784409</v>
+        <v>1.004074343906951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026867341249778</v>
+        <v>0.9862331651385929</v>
       </c>
       <c r="D3">
-        <v>1.029424797213447</v>
+        <v>0.9941372934382918</v>
       </c>
       <c r="E3">
-        <v>1.026996600517514</v>
+        <v>0.9940862168707633</v>
       </c>
       <c r="F3">
-        <v>1.026010072726327</v>
+        <v>0.9648696442695549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030683074228822</v>
+        <v>1.04111674533588</v>
       </c>
       <c r="J3">
-        <v>1.031673222656614</v>
+        <v>1.007106295731896</v>
       </c>
       <c r="K3">
-        <v>1.032049067396704</v>
+        <v>1.0048457424092</v>
       </c>
       <c r="L3">
-        <v>1.029627436518428</v>
+        <v>1.004795329102626</v>
       </c>
       <c r="M3">
-        <v>1.028643585896856</v>
+        <v>0.9759726741470848</v>
       </c>
       <c r="N3">
-        <v>1.014511244074258</v>
+        <v>1.005931419313563</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0277750418129</v>
+        <v>0.9908549474298617</v>
       </c>
       <c r="D4">
-        <v>1.030276484227645</v>
+        <v>0.9983269642077249</v>
       </c>
       <c r="E4">
-        <v>1.027775288599072</v>
+        <v>0.9978990264368459</v>
       </c>
       <c r="F4">
-        <v>1.027333302738543</v>
+        <v>0.9713160207838525</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030870812285324</v>
+        <v>1.042494171790106</v>
       </c>
       <c r="J4">
-        <v>1.032345655912636</v>
+        <v>1.010495513211834</v>
       </c>
       <c r="K4">
-        <v>1.032775009804631</v>
+        <v>1.008445623325816</v>
       </c>
       <c r="L4">
-        <v>1.03028023224882</v>
+        <v>1.0080228746728</v>
       </c>
       <c r="M4">
-        <v>1.02983938402983</v>
+        <v>0.9817734245197618</v>
       </c>
       <c r="N4">
-        <v>1.014737793203968</v>
+        <v>1.007089220978461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02815607688255</v>
+        <v>0.9927615411119816</v>
       </c>
       <c r="D5">
-        <v>1.030634051374047</v>
+        <v>1.00005633272999</v>
       </c>
       <c r="E5">
-        <v>1.028102241899186</v>
+        <v>0.9994734466391137</v>
       </c>
       <c r="F5">
-        <v>1.027888922542228</v>
+        <v>0.9739726064533436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030949028163207</v>
+        <v>1.043057503363056</v>
       </c>
       <c r="J5">
-        <v>1.032627693080332</v>
+        <v>1.011891783376312</v>
       </c>
       <c r="K5">
-        <v>1.03307958698807</v>
+        <v>1.009929494779623</v>
       </c>
       <c r="L5">
-        <v>1.030554127557015</v>
+        <v>1.009353470993885</v>
       </c>
       <c r="M5">
-        <v>1.030341344766503</v>
+        <v>0.9841628722743655</v>
       </c>
       <c r="N5">
-        <v>1.014832772720897</v>
+        <v>1.007566058242661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028220021636942</v>
+        <v>0.9930795969158088</v>
       </c>
       <c r="D6">
-        <v>1.030694060427603</v>
+        <v>1.000344882892913</v>
       </c>
       <c r="E6">
-        <v>1.028157115115534</v>
+        <v>0.9997361780634326</v>
       </c>
       <c r="F6">
-        <v>1.027982175033278</v>
+        <v>0.9744156337799547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030962119431945</v>
+        <v>1.043151187931846</v>
       </c>
       <c r="J6">
-        <v>1.032675010223273</v>
+        <v>1.012124597153931</v>
       </c>
       <c r="K6">
-        <v>1.033130691332289</v>
+        <v>1.010176962906082</v>
       </c>
       <c r="L6">
-        <v>1.030600084299744</v>
+        <v>1.00957538857241</v>
       </c>
       <c r="M6">
-        <v>1.030425582527825</v>
+        <v>0.9845612853072431</v>
       </c>
       <c r="N6">
-        <v>1.014848704916755</v>
+        <v>1.007645556844252</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027780135420362</v>
+        <v>0.9908805634874129</v>
       </c>
       <c r="D7">
-        <v>1.030281263942022</v>
+        <v>0.9983501951525451</v>
       </c>
       <c r="E7">
-        <v>1.02777965895669</v>
+        <v>0.9979201735643792</v>
       </c>
       <c r="F7">
-        <v>1.027340729551889</v>
+        <v>0.971351723250888</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030871860193597</v>
+        <v>1.042501759903553</v>
       </c>
       <c r="J7">
-        <v>1.032349427067536</v>
+        <v>1.010514280229583</v>
       </c>
       <c r="K7">
-        <v>1.032779081964063</v>
+        <v>1.008465564558765</v>
       </c>
       <c r="L7">
-        <v>1.03028389416552</v>
+        <v>1.008040755314759</v>
       </c>
       <c r="M7">
-        <v>1.029846094191003</v>
+        <v>0.9818055411893255</v>
       </c>
       <c r="N7">
-        <v>1.014739063350599</v>
+        <v>1.007095630668135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025936687143139</v>
+        <v>0.981373677600492</v>
       </c>
       <c r="D8">
-        <v>1.028551729923946</v>
+        <v>0.9897359339489011</v>
       </c>
       <c r="E8">
-        <v>1.026198480229262</v>
+        <v>0.9900829870587257</v>
       </c>
       <c r="F8">
-        <v>1.024653889107603</v>
+        <v>0.9580804632948591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03048856629777</v>
+        <v>1.039651579848377</v>
       </c>
       <c r="J8">
-        <v>1.030982975784741</v>
+        <v>1.003536341188696</v>
       </c>
       <c r="K8">
-        <v>1.031304224543661</v>
+        <v>1.001056757272556</v>
       </c>
       <c r="L8">
-        <v>1.028957671172283</v>
+        <v>1.001398987658186</v>
       </c>
       <c r="M8">
-        <v>1.027417493441487</v>
+        <v>0.96985988277737</v>
       </c>
       <c r="N8">
-        <v>1.014278552145158</v>
+        <v>1.004711408608494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022669613712598</v>
+        <v>0.9632585900682087</v>
       </c>
       <c r="D9">
-        <v>1.025488044742691</v>
+        <v>0.973362530209674</v>
       </c>
       <c r="E9">
-        <v>1.023398692957669</v>
+        <v>0.9752104045323895</v>
       </c>
       <c r="F9">
-        <v>1.019896579310227</v>
+        <v>0.9326427115028415</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02979028524567</v>
+        <v>1.034059760228743</v>
       </c>
       <c r="J9">
-        <v>1.02855366593329</v>
+        <v>0.9901790004074041</v>
       </c>
       <c r="K9">
-        <v>1.028685299552754</v>
+        <v>0.9869030905346647</v>
       </c>
       <c r="L9">
-        <v>1.026602933319814</v>
+        <v>0.9887189015203671</v>
       </c>
       <c r="M9">
-        <v>1.023112599173195</v>
+        <v>0.9469321100469643</v>
       </c>
       <c r="N9">
-        <v>1.013458524035746</v>
+        <v>1.000143895700185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020478430348019</v>
+        <v>0.9500676582047822</v>
       </c>
       <c r="D10">
-        <v>1.023434314755208</v>
+        <v>0.9614731874514882</v>
       </c>
       <c r="E10">
-        <v>1.021522626627981</v>
+        <v>0.9644302444437972</v>
       </c>
       <c r="F10">
-        <v>1.016708554406316</v>
+        <v>0.9139553868168711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029309238037926</v>
+        <v>1.029883107388346</v>
       </c>
       <c r="J10">
-        <v>1.026919264336067</v>
+        <v>0.9804126745524402</v>
       </c>
       <c r="K10">
-        <v>1.026925418105565</v>
+        <v>0.9765747316276919</v>
       </c>
       <c r="L10">
-        <v>1.025020761336469</v>
+        <v>0.9794728583450841</v>
       </c>
       <c r="M10">
-        <v>1.020224525301471</v>
+        <v>0.9300738161849129</v>
       </c>
       <c r="N10">
-        <v>1.012905945977901</v>
+        <v>0.996803262176673</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019526379405852</v>
+        <v>0.9440370904028088</v>
       </c>
       <c r="D11">
-        <v>1.022542240738586</v>
+        <v>0.9560469932921272</v>
       </c>
       <c r="E11">
-        <v>1.020707908557985</v>
+        <v>0.9595157141810077</v>
       </c>
       <c r="F11">
-        <v>1.015323928820687</v>
+        <v>0.9053550638098876</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0290972219662</v>
+        <v>1.02794999651883</v>
       </c>
       <c r="J11">
-        <v>1.026207925872142</v>
+        <v>0.9759386740019192</v>
       </c>
       <c r="K11">
-        <v>1.026159962093659</v>
+        <v>0.9718482911486864</v>
       </c>
       <c r="L11">
-        <v>1.024332643874812</v>
+        <v>0.975243737831227</v>
       </c>
       <c r="M11">
-        <v>1.018969413376775</v>
+        <v>0.9223135477546166</v>
       </c>
       <c r="N11">
-        <v>1.012665243155395</v>
+        <v>0.9952730073162356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019172245155697</v>
+        <v>0.9417435456286644</v>
       </c>
       <c r="D12">
-        <v>1.02221045493682</v>
+        <v>0.9539848373758166</v>
       </c>
       <c r="E12">
-        <v>1.020404921554816</v>
+        <v>0.9576489109301753</v>
       </c>
       <c r="F12">
-        <v>1.014808964775163</v>
+        <v>0.9020737204664906</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029017907853635</v>
+        <v>1.027211362646371</v>
       </c>
       <c r="J12">
-        <v>1.025943148749598</v>
+        <v>0.9742357890073184</v>
       </c>
       <c r="K12">
-        <v>1.025875115416424</v>
+        <v>0.9700501033138199</v>
       </c>
       <c r="L12">
-        <v>1.024076583740584</v>
+        <v>0.973635099421664</v>
       </c>
       <c r="M12">
-        <v>1.018502503472026</v>
+        <v>0.9193526563825661</v>
       </c>
       <c r="N12">
-        <v>1.012575617263222</v>
+        <v>0.9946906153189199</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019248230968961</v>
+        <v>0.9422380420107886</v>
       </c>
       <c r="D13">
-        <v>1.022281643725536</v>
+        <v>0.9544293740519347</v>
       </c>
       <c r="E13">
-        <v>1.020469929925075</v>
+        <v>0.9580512935225926</v>
       </c>
       <c r="F13">
-        <v>1.014919456207856</v>
+        <v>0.9027816968528537</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029034946477619</v>
+        <v>1.027370767532826</v>
       </c>
       <c r="J13">
-        <v>1.025999969567492</v>
+        <v>0.9746029967574611</v>
       </c>
       <c r="K13">
-        <v>1.025936239774401</v>
+        <v>0.9704378263971783</v>
       </c>
       <c r="L13">
-        <v>1.024131530574379</v>
+        <v>0.9739819359803583</v>
       </c>
       <c r="M13">
-        <v>1.018602689491866</v>
+        <v>0.9199914917940873</v>
       </c>
       <c r="N13">
-        <v>1.012594852239448</v>
+        <v>0.9948161986406975</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019497116826543</v>
+        <v>0.9438486332081222</v>
       </c>
       <c r="D14">
-        <v>1.022514824045593</v>
+        <v>0.9558775171165116</v>
       </c>
       <c r="E14">
-        <v>1.020682871041897</v>
+        <v>0.9593622740888318</v>
       </c>
       <c r="F14">
-        <v>1.015281375175857</v>
+        <v>0.9050856650203237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029090677317684</v>
+        <v>1.027889372846806</v>
       </c>
       <c r="J14">
-        <v>1.026186050671855</v>
+        <v>0.9757987772938017</v>
       </c>
       <c r="K14">
-        <v>1.026136427284664</v>
+        <v>0.9717005490948305</v>
       </c>
       <c r="L14">
-        <v>1.024311487349026</v>
+        <v>0.975111562299206</v>
       </c>
       <c r="M14">
-        <v>1.018930832970828</v>
+        <v>0.9220704580686946</v>
       </c>
       <c r="N14">
-        <v>1.012657839118068</v>
+        <v>0.9952251609683047</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019650397005328</v>
+        <v>0.9448336941724543</v>
       </c>
       <c r="D15">
-        <v>1.022658436889168</v>
+        <v>0.9567634278036333</v>
       </c>
       <c r="E15">
-        <v>1.020814022543584</v>
+        <v>0.9601643957078018</v>
       </c>
       <c r="F15">
-        <v>1.015504278248097</v>
+        <v>0.9064933686277378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029124940376358</v>
+        <v>1.028206112719468</v>
       </c>
       <c r="J15">
-        <v>1.02630062766313</v>
+        <v>0.9765299599043363</v>
       </c>
       <c r="K15">
-        <v>1.026259699942904</v>
+        <v>0.972472767903404</v>
       </c>
       <c r="L15">
-        <v>1.024422303108812</v>
+        <v>0.9758024320732633</v>
       </c>
       <c r="M15">
-        <v>1.019132918891504</v>
+        <v>0.923340686169613</v>
       </c>
       <c r="N15">
-        <v>1.012696618419684</v>
+        <v>0.9954752364329131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020541545316506</v>
+        <v>0.9504607117364389</v>
       </c>
       <c r="D16">
-        <v>1.023493459039086</v>
+        <v>0.961827052655357</v>
       </c>
       <c r="E16">
-        <v>1.021576646146386</v>
+        <v>0.9647508608113643</v>
       </c>
       <c r="F16">
-        <v>1.016800357216923</v>
+        <v>0.9145146042406349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029323230218519</v>
+        <v>1.03000862400331</v>
       </c>
       <c r="J16">
-        <v>1.026966396268769</v>
+        <v>0.9807040914724194</v>
       </c>
       <c r="K16">
-        <v>1.026976146164137</v>
+        <v>0.9768826968887451</v>
       </c>
       <c r="L16">
-        <v>1.025066364982626</v>
+        <v>0.9797484641048876</v>
       </c>
       <c r="M16">
-        <v>1.020307725165656</v>
+        <v>0.9305783913126886</v>
       </c>
       <c r="N16">
-        <v>1.01292189019804</v>
+        <v>0.9969029412891414</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021099659996991</v>
+        <v>0.9539013582020173</v>
       </c>
       <c r="D17">
-        <v>1.024016491077711</v>
+        <v>0.9649257190374235</v>
       </c>
       <c r="E17">
-        <v>1.022054379558871</v>
+        <v>0.9675589993860652</v>
       </c>
       <c r="F17">
-        <v>1.017612215451156</v>
+        <v>0.9194032134590558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029446614223638</v>
+        <v>1.031104710309107</v>
       </c>
       <c r="J17">
-        <v>1.027383036879838</v>
+        <v>0.9832540339299091</v>
       </c>
       <c r="K17">
-        <v>1.027424633104347</v>
+        <v>0.9795780060214159</v>
       </c>
       <c r="L17">
-        <v>1.025469552094996</v>
+        <v>0.982160795032323</v>
       </c>
       <c r="M17">
-        <v>1.021043415469129</v>
+        <v>0.9349891527275404</v>
       </c>
       <c r="N17">
-        <v>1.013062811594417</v>
+        <v>0.9977751642354267</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.021424885642954</v>
+        <v>0.9558778955670149</v>
       </c>
       <c r="D18">
-        <v>1.024321297773496</v>
+        <v>0.9667066610294364</v>
       </c>
       <c r="E18">
-        <v>1.022332805386749</v>
+        <v>0.9691734647785686</v>
       </c>
       <c r="F18">
-        <v>1.018085355938566</v>
+        <v>0.9222063818940803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02951822336519</v>
+        <v>1.031732159456082</v>
       </c>
       <c r="J18">
-        <v>1.027625706479233</v>
+        <v>0.9847180420348267</v>
       </c>
       <c r="K18">
-        <v>1.027685898998602</v>
+        <v>0.9811259413079177</v>
       </c>
       <c r="L18">
-        <v>1.025704432841733</v>
+        <v>0.9835464009816401</v>
       </c>
       <c r="M18">
-        <v>1.021472092923163</v>
+        <v>0.9375181463798723</v>
       </c>
       <c r="N18">
-        <v>1.013144870605065</v>
+        <v>0.9982759443000483</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021535726396809</v>
+        <v>0.9565468541898089</v>
       </c>
       <c r="D19">
-        <v>1.024425183640337</v>
+        <v>0.9673095627806519</v>
       </c>
       <c r="E19">
-        <v>1.022427702984039</v>
+        <v>0.969720092266051</v>
       </c>
       <c r="F19">
-        <v>1.018246617006771</v>
+        <v>0.9231542858897345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029542579489485</v>
+        <v>1.031944140207973</v>
       </c>
       <c r="J19">
-        <v>1.027708391467503</v>
+        <v>0.985213390225676</v>
       </c>
       <c r="K19">
-        <v>1.027774928393194</v>
+        <v>0.9816497649432407</v>
       </c>
       <c r="L19">
-        <v>1.025784471906588</v>
+        <v>0.9840153228540897</v>
       </c>
       <c r="M19">
-        <v>1.021618187148174</v>
+        <v>0.9383733024740665</v>
       </c>
       <c r="N19">
-        <v>1.01317282727674</v>
+        <v>0.998445383898797</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021039812051215</v>
+        <v>0.9535353845300242</v>
       </c>
       <c r="D20">
-        <v>1.023960402589239</v>
+        <v>0.9645960305460614</v>
       </c>
       <c r="E20">
-        <v>1.022003146928514</v>
+        <v>0.9672601693094373</v>
       </c>
       <c r="F20">
-        <v>1.017525152563383</v>
+        <v>0.9188837740313957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029433413407948</v>
+        <v>1.030988351880799</v>
       </c>
       <c r="J20">
-        <v>1.027338371531751</v>
+        <v>0.9829828905398479</v>
       </c>
       <c r="K20">
-        <v>1.027376548790381</v>
+        <v>0.9792913565543757</v>
       </c>
       <c r="L20">
-        <v>1.025426324139681</v>
+        <v>0.981904220939769</v>
       </c>
       <c r="M20">
-        <v>1.020964528342913</v>
+        <v>0.9345205037971617</v>
       </c>
       <c r="N20">
-        <v>1.013047706362755</v>
+        <v>0.9976824170290149</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019423840042146</v>
+        <v>0.9433758819033019</v>
       </c>
       <c r="D21">
-        <v>1.022446170197044</v>
+        <v>0.955452405451939</v>
       </c>
       <c r="E21">
-        <v>1.020620175319658</v>
+        <v>0.9589774018948702</v>
       </c>
       <c r="F21">
-        <v>1.015174817257242</v>
+        <v>0.90440969361136</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029074281510762</v>
+        <v>1.02773724158316</v>
       </c>
       <c r="J21">
-        <v>1.026131269797707</v>
+        <v>0.9754478203032519</v>
       </c>
       <c r="K21">
-        <v>1.026077491541926</v>
+        <v>0.971329923213365</v>
       </c>
       <c r="L21">
-        <v>1.024258507400647</v>
+        <v>0.9747799922499826</v>
       </c>
       <c r="M21">
-        <v>1.018834222537514</v>
+        <v>0.9214605008421318</v>
       </c>
       <c r="N21">
-        <v>1.012639297097392</v>
+        <v>0.9951051304146333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01840491497372</v>
+        <v>0.9366749674467245</v>
       </c>
       <c r="D22">
-        <v>1.021491620592049</v>
+        <v>0.9494306095356245</v>
       </c>
       <c r="E22">
-        <v>1.019748533358484</v>
+        <v>0.9535278857507694</v>
       </c>
       <c r="F22">
-        <v>1.013693281688119</v>
+        <v>0.894800310941981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028845228459934</v>
+        <v>1.025572825606472</v>
       </c>
       <c r="J22">
-        <v>1.025369105363321</v>
+        <v>0.97047009157303</v>
       </c>
       <c r="K22">
-        <v>1.025257696642524</v>
+        <v>0.9660751324470539</v>
       </c>
       <c r="L22">
-        <v>1.023521573776931</v>
+        <v>0.9700798158460865</v>
       </c>
       <c r="M22">
-        <v>1.017490722695624</v>
+        <v>0.9127897042308015</v>
       </c>
       <c r="N22">
-        <v>1.01238125040345</v>
+        <v>0.9934028708292817</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018945345045094</v>
+        <v>0.9402590914995873</v>
       </c>
       <c r="D23">
-        <v>1.021997884883135</v>
+        <v>0.9526505957767483</v>
       </c>
       <c r="E23">
-        <v>1.020210810399503</v>
+        <v>0.9564413307737262</v>
       </c>
       <c r="F23">
-        <v>1.014479038385813</v>
+        <v>0.8999467037387068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02896696316997</v>
+        <v>1.026732343340734</v>
       </c>
       <c r="J23">
-        <v>1.025773450516331</v>
+        <v>0.9731332556725282</v>
       </c>
       <c r="K23">
-        <v>1.025692575318091</v>
+        <v>0.9688860897560553</v>
       </c>
       <c r="L23">
-        <v>1.023912493037102</v>
+        <v>0.9725938878994081</v>
       </c>
       <c r="M23">
-        <v>1.018203332279304</v>
+        <v>0.9174333727892074</v>
       </c>
       <c r="N23">
-        <v>1.012518166579709</v>
+        <v>0.9943135644263147</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021066855729624</v>
+        <v>0.9537008456063379</v>
       </c>
       <c r="D24">
-        <v>1.023985747394305</v>
+        <v>0.964745083990468</v>
       </c>
       <c r="E24">
-        <v>1.02202629745348</v>
+        <v>0.9673952699878019</v>
       </c>
       <c r="F24">
-        <v>1.017564493778613</v>
+        <v>0.9191186347765531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029439379396641</v>
+        <v>1.031040965819673</v>
       </c>
       <c r="J24">
-        <v>1.027358554960933</v>
+        <v>0.9831054803549888</v>
       </c>
       <c r="K24">
-        <v>1.027398277038602</v>
+        <v>0.9794209555517731</v>
       </c>
       <c r="L24">
-        <v>1.025445857892675</v>
+        <v>0.982020221780317</v>
       </c>
       <c r="M24">
-        <v>1.021000175393387</v>
+        <v>0.9347324005415465</v>
       </c>
       <c r="N24">
-        <v>1.013054532193361</v>
+        <v>0.9977243500347041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023516503063064</v>
+        <v>0.968121929372104</v>
       </c>
       <c r="D25">
-        <v>1.026282030831212</v>
+        <v>0.9777530621195103</v>
       </c>
       <c r="E25">
-        <v>1.024124154796602</v>
+        <v>0.9791954542407748</v>
       </c>
       <c r="F25">
-        <v>1.021129275707476</v>
+        <v>0.9394947534104008</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0299735330289</v>
+        <v>1.035579075175168</v>
       </c>
       <c r="J25">
-        <v>1.029184287537179</v>
+        <v>0.9937718947089478</v>
       </c>
       <c r="K25">
-        <v>1.029364775925342</v>
+        <v>0.9907068382252407</v>
       </c>
       <c r="L25">
-        <v>1.027213835790746</v>
+        <v>0.992125554417631</v>
       </c>
       <c r="M25">
-        <v>1.024228636120656</v>
+        <v>0.9531110524730062</v>
       </c>
       <c r="N25">
-        <v>1.013671548825379</v>
+        <v>1.001372761154965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9788400864412922</v>
+        <v>1.012126785684339</v>
       </c>
       <c r="D2">
-        <v>0.9874427300684537</v>
+        <v>1.028348765483946</v>
       </c>
       <c r="E2">
-        <v>0.9879981143473111</v>
+        <v>1.026257489549783</v>
       </c>
       <c r="F2">
-        <v>0.9545356695217451</v>
+        <v>1.03558832049922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038881295813225</v>
+        <v>1.052270488583138</v>
       </c>
       <c r="J2">
-        <v>1.001672646838019</v>
+        <v>1.033950739143479</v>
       </c>
       <c r="K2">
-        <v>0.9990798248051833</v>
+        <v>1.039426794447029</v>
       </c>
       <c r="L2">
-        <v>0.9996272261667173</v>
+        <v>1.037362745571349</v>
       </c>
       <c r="M2">
-        <v>0.966666961666372</v>
+        <v>1.046573156358609</v>
       </c>
       <c r="N2">
-        <v>1.004074343906951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015221058636636</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045431903168234</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038948435067087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9862331651385929</v>
+        <v>1.015674010478232</v>
       </c>
       <c r="D3">
-        <v>0.9941372934382918</v>
+        <v>1.030954438116525</v>
       </c>
       <c r="E3">
-        <v>0.9940862168707633</v>
+        <v>1.029016013676387</v>
       </c>
       <c r="F3">
-        <v>0.9648696442695549</v>
+        <v>1.038290899827969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04111674533588</v>
+        <v>1.05299257557162</v>
       </c>
       <c r="J3">
-        <v>1.007106295731896</v>
+        <v>1.035746318399744</v>
       </c>
       <c r="K3">
-        <v>1.0048457424092</v>
+        <v>1.041205997325821</v>
       </c>
       <c r="L3">
-        <v>1.004795329102626</v>
+        <v>1.039290616920948</v>
       </c>
       <c r="M3">
-        <v>0.9759726741470848</v>
+        <v>1.048456206645836</v>
       </c>
       <c r="N3">
-        <v>1.005931419313563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015819323406512</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046922199599017</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040203822230959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9908549474298617</v>
+        <v>1.017928547989104</v>
       </c>
       <c r="D4">
-        <v>0.9983269642077249</v>
+        <v>1.032617111290553</v>
       </c>
       <c r="E4">
-        <v>0.9978990264368459</v>
+        <v>1.030775402667658</v>
       </c>
       <c r="F4">
-        <v>0.9713160207838525</v>
+        <v>1.04001654150676</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042494171790106</v>
+        <v>1.053434622192638</v>
       </c>
       <c r="J4">
-        <v>1.010495513211834</v>
+        <v>1.036884498381387</v>
       </c>
       <c r="K4">
-        <v>1.008445623325816</v>
+        <v>1.0423371906707</v>
       </c>
       <c r="L4">
-        <v>1.0080228746728</v>
+        <v>1.040516059603255</v>
       </c>
       <c r="M4">
-        <v>0.9817734245197618</v>
+        <v>1.049654848832567</v>
       </c>
       <c r="N4">
-        <v>1.007089220978461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016198629813404</v>
+      </c>
+      <c r="O4">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.047870835559717</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041004566548446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927615411119816</v>
+        <v>1.0188701131047</v>
       </c>
       <c r="D5">
-        <v>1.00005633272999</v>
+        <v>1.033315417850892</v>
       </c>
       <c r="E5">
-        <v>0.9994734466391137</v>
+        <v>1.031512169649454</v>
       </c>
       <c r="F5">
-        <v>0.9739726064533436</v>
+        <v>1.040739912729091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043057503363056</v>
+        <v>1.053615803488135</v>
       </c>
       <c r="J5">
-        <v>1.011891783376312</v>
+        <v>1.037360611961927</v>
       </c>
       <c r="K5">
-        <v>1.009929494779623</v>
+        <v>1.042812768876845</v>
       </c>
       <c r="L5">
-        <v>1.009353470993885</v>
+        <v>1.041029133505848</v>
       </c>
       <c r="M5">
-        <v>0.9841628722743655</v>
+        <v>1.050157388922231</v>
       </c>
       <c r="N5">
-        <v>1.007566058242661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016357569914476</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048268558226462</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041347997211563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9930795969158088</v>
+        <v>1.019031620482547</v>
       </c>
       <c r="D6">
-        <v>1.000344882892913</v>
+        <v>1.033438164442969</v>
       </c>
       <c r="E6">
-        <v>0.9997361780634326</v>
+        <v>1.031639293821983</v>
       </c>
       <c r="F6">
-        <v>0.9744156337799547</v>
+        <v>1.040865080872141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043151187931846</v>
+        <v>1.053647480819258</v>
       </c>
       <c r="J6">
-        <v>1.012124597153931</v>
+        <v>1.037444102165479</v>
       </c>
       <c r="K6">
-        <v>1.010176962906082</v>
+        <v>1.042898099353068</v>
       </c>
       <c r="L6">
-        <v>1.00957538857241</v>
+        <v>1.041118704531745</v>
       </c>
       <c r="M6">
-        <v>0.9845612853072431</v>
+        <v>1.050245479335208</v>
       </c>
       <c r="N6">
-        <v>1.007645556844252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016385750227576</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04833827513788</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041417061055635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9908805634874129</v>
+        <v>1.017951848857559</v>
       </c>
       <c r="D7">
-        <v>0.9983501951525451</v>
+        <v>1.032642082102404</v>
       </c>
       <c r="E7">
-        <v>0.9979201735643792</v>
+        <v>1.030795412424999</v>
       </c>
       <c r="F7">
-        <v>0.971351723250888</v>
+        <v>1.040037052853556</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042501759903553</v>
+        <v>1.053441387391121</v>
       </c>
       <c r="J7">
-        <v>1.010514280229583</v>
+        <v>1.036901304164176</v>
       </c>
       <c r="K7">
-        <v>1.008465564558765</v>
+        <v>1.042359008361504</v>
       </c>
       <c r="L7">
-        <v>1.008040755314759</v>
+        <v>1.04053296368662</v>
       </c>
       <c r="M7">
-        <v>0.9818055411893255</v>
+        <v>1.049672287952949</v>
       </c>
       <c r="N7">
-        <v>1.007095630668135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016205075279205</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047884637314849</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04104007102082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.981373677600492</v>
+        <v>1.013347630218369</v>
       </c>
       <c r="D8">
-        <v>0.9897359339489011</v>
+        <v>1.029253733311134</v>
       </c>
       <c r="E8">
-        <v>0.9900829870587257</v>
+        <v>1.027207888704227</v>
       </c>
       <c r="F8">
-        <v>0.9580804632948591</v>
+        <v>1.03652008680572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039651579848377</v>
+        <v>1.052525194035012</v>
       </c>
       <c r="J8">
-        <v>1.003536341188696</v>
+        <v>1.034575606003774</v>
       </c>
       <c r="K8">
-        <v>1.001056757272556</v>
+        <v>1.040051504310894</v>
       </c>
       <c r="L8">
-        <v>1.001398987658186</v>
+        <v>1.038031504669739</v>
       </c>
       <c r="M8">
-        <v>0.96985988277737</v>
+        <v>1.047227089672828</v>
       </c>
       <c r="N8">
-        <v>1.004711408608494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015430324401813</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045949443849482</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039413043783121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632585900682087</v>
+        <v>1.004892802736502</v>
       </c>
       <c r="D9">
-        <v>0.973362530209674</v>
+        <v>1.02307259264116</v>
       </c>
       <c r="E9">
-        <v>0.9752104045323895</v>
+        <v>1.020667068278864</v>
       </c>
       <c r="F9">
-        <v>0.9326427115028415</v>
+        <v>1.030121837441808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034059760228743</v>
+        <v>1.050708056599317</v>
       </c>
       <c r="J9">
-        <v>0.9901790004074041</v>
+        <v>1.03027395877649</v>
       </c>
       <c r="K9">
-        <v>0.9869030905346647</v>
+        <v>1.035802104529203</v>
       </c>
       <c r="L9">
-        <v>0.9887189015203671</v>
+        <v>1.033433505274043</v>
       </c>
       <c r="M9">
-        <v>0.9469321100469643</v>
+        <v>1.042744406987655</v>
       </c>
       <c r="N9">
-        <v>1.000143895700185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013996586215524</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042401719020604</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036405260046742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500676582047822</v>
+        <v>0.9990751028414137</v>
       </c>
       <c r="D10">
-        <v>0.9614731874514882</v>
+        <v>1.018879807315187</v>
       </c>
       <c r="E10">
-        <v>0.9644302444437972</v>
+        <v>1.016226887522004</v>
       </c>
       <c r="F10">
-        <v>0.9139553868168711</v>
+        <v>1.025822023029226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029883107388346</v>
+        <v>1.049382742974217</v>
       </c>
       <c r="J10">
-        <v>0.9804126745524402</v>
+        <v>1.027325464666348</v>
       </c>
       <c r="K10">
-        <v>0.9765747316276919</v>
+        <v>1.032916347557013</v>
       </c>
       <c r="L10">
-        <v>0.9794728583450841</v>
+        <v>1.030309213613764</v>
       </c>
       <c r="M10">
-        <v>0.9300738161849129</v>
+        <v>1.039740195921042</v>
       </c>
       <c r="N10">
-        <v>0.996803262176673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013018351054745</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0400754286243</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034381670668112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9440370904028088</v>
+        <v>0.9969237566563758</v>
       </c>
       <c r="D11">
-        <v>0.9560469932921272</v>
+        <v>1.01750988468552</v>
       </c>
       <c r="E11">
-        <v>0.9595157141810077</v>
+        <v>1.014791077417088</v>
       </c>
       <c r="F11">
-        <v>0.9053550638098876</v>
+        <v>1.024699361770688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02794999651883</v>
+        <v>1.048946077867931</v>
       </c>
       <c r="J11">
-        <v>0.9759386740019192</v>
+        <v>1.026425073296</v>
       </c>
       <c r="K11">
-        <v>0.9718482911486864</v>
+        <v>1.032108976067311</v>
       </c>
       <c r="L11">
-        <v>0.975243737831227</v>
+        <v>1.029439344298536</v>
       </c>
       <c r="M11">
-        <v>0.9223135477546166</v>
+        <v>1.039170046886597</v>
       </c>
       <c r="N11">
-        <v>0.9952730073162356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012751831657151</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040059634450852</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033843713864171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,81 +963,105 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9417435456286644</v>
+        <v>0.9962680411286187</v>
       </c>
       <c r="D12">
-        <v>0.9539848373758166</v>
+        <v>1.017161283436671</v>
       </c>
       <c r="E12">
-        <v>0.9576489109301753</v>
+        <v>1.014440233350561</v>
       </c>
       <c r="F12">
-        <v>0.9020737204664906</v>
+        <v>1.024554782535751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027211362646371</v>
+        <v>1.048839462740663</v>
       </c>
       <c r="J12">
-        <v>0.9742357890073184</v>
+        <v>1.026231188273718</v>
       </c>
       <c r="K12">
-        <v>0.9700501033138199</v>
+        <v>1.031966923867618</v>
       </c>
       <c r="L12">
-        <v>0.973635099421664</v>
+        <v>1.029295913569241</v>
       </c>
       <c r="M12">
-        <v>0.9193526563825661</v>
+        <v>1.039226201631233</v>
       </c>
       <c r="N12">
-        <v>0.9946906153189199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012712225701306</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040429883305515</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033743278079737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9422380420107886</v>
+        <v>0.9967362230705947</v>
       </c>
       <c r="D13">
-        <v>0.9544293740519347</v>
+        <v>1.017596953270713</v>
       </c>
       <c r="E13">
-        <v>0.9580512935225926</v>
+        <v>1.014916640153203</v>
       </c>
       <c r="F13">
-        <v>0.9027816968528537</v>
+        <v>1.025176701170463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027370767532826</v>
+        <v>1.048992806420793</v>
       </c>
       <c r="J13">
-        <v>0.9746029967574611</v>
+        <v>1.026586228078183</v>
       </c>
       <c r="K13">
-        <v>0.9704378263971783</v>
+        <v>1.032351685022614</v>
       </c>
       <c r="L13">
-        <v>0.9739819359803583</v>
+        <v>1.029720440242902</v>
       </c>
       <c r="M13">
-        <v>0.9199914917940873</v>
+        <v>1.039794474524683</v>
       </c>
       <c r="N13">
-        <v>0.9948161986406975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012851837546726</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041155427179302</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034012821338269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9438486332081222</v>
+        <v>0.9975745513628453</v>
       </c>
       <c r="D14">
-        <v>0.9558775171165116</v>
+        <v>1.018259495965198</v>
       </c>
       <c r="E14">
-        <v>0.9593622740888318</v>
+        <v>1.015625748902363</v>
       </c>
       <c r="F14">
-        <v>0.9050856650203237</v>
+        <v>1.025960532143631</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027889372846806</v>
+        <v>1.049218117830461</v>
       </c>
       <c r="J14">
-        <v>0.9757987772938017</v>
+        <v>1.02708437992028</v>
       </c>
       <c r="K14">
-        <v>0.9717005490948305</v>
+        <v>1.032861617544256</v>
       </c>
       <c r="L14">
-        <v>0.975111562299206</v>
+        <v>1.030275473142764</v>
       </c>
       <c r="M14">
-        <v>0.9220704580686946</v>
+        <v>1.040425282521277</v>
       </c>
       <c r="N14">
-        <v>0.9952251609683047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013031120172583</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041827123078751</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034374787761627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9448336941724543</v>
+        <v>0.998028268979185</v>
       </c>
       <c r="D15">
-        <v>0.9567634278036333</v>
+        <v>1.018600333664057</v>
       </c>
       <c r="E15">
-        <v>0.9601643957078018</v>
+        <v>1.015986159377984</v>
       </c>
       <c r="F15">
-        <v>0.9064933686277378</v>
+        <v>1.026331187348513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028206112719468</v>
+        <v>1.049331770193906</v>
       </c>
       <c r="J15">
-        <v>0.9765299599043363</v>
+        <v>1.027331718013314</v>
       </c>
       <c r="K15">
-        <v>0.972472767903404</v>
+        <v>1.033109769480762</v>
       </c>
       <c r="L15">
-        <v>0.9758024320732633</v>
+        <v>1.030542479325168</v>
       </c>
       <c r="M15">
-        <v>0.923340686169613</v>
+        <v>1.040703784250366</v>
       </c>
       <c r="N15">
-        <v>0.9954752364329131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013116367366895</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042084731636601</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034556117150832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9504607117364389</v>
+        <v>1.00040582367685</v>
       </c>
       <c r="D16">
-        <v>0.961827052655357</v>
+        <v>1.020299260364613</v>
       </c>
       <c r="E16">
-        <v>0.9647508608113643</v>
+        <v>1.017780254513985</v>
       </c>
       <c r="F16">
-        <v>0.9145146042406349</v>
+        <v>1.028058011164749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03000862400331</v>
+        <v>1.049885648750318</v>
       </c>
       <c r="J16">
-        <v>0.9807040914724194</v>
+        <v>1.028526615830723</v>
       </c>
       <c r="K16">
-        <v>0.9768826968887451</v>
+        <v>1.034275798247831</v>
       </c>
       <c r="L16">
-        <v>0.9797484641048876</v>
+        <v>1.031799976607992</v>
       </c>
       <c r="M16">
-        <v>0.9305783913126886</v>
+        <v>1.041903252123011</v>
       </c>
       <c r="N16">
-        <v>0.9969029412891414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013509143354328</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042994135270424</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035383710614286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9539013582020173</v>
+        <v>1.001791494724638</v>
       </c>
       <c r="D17">
-        <v>0.9649257190374235</v>
+        <v>1.021256741462509</v>
       </c>
       <c r="E17">
-        <v>0.9675589993860652</v>
+        <v>1.018785958618967</v>
       </c>
       <c r="F17">
-        <v>0.9194032134590558</v>
+        <v>1.028969056092589</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031104710309107</v>
+        <v>1.050188392712279</v>
       </c>
       <c r="J17">
-        <v>0.9832540339299091</v>
+        <v>1.029181002085179</v>
       </c>
       <c r="K17">
-        <v>0.9795780060214159</v>
+        <v>1.034902052939014</v>
       </c>
       <c r="L17">
-        <v>0.982160795032323</v>
+        <v>1.032472428888955</v>
       </c>
       <c r="M17">
-        <v>0.9349891527275404</v>
+        <v>1.042487527891725</v>
       </c>
       <c r="N17">
-        <v>0.9977751642354267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013716040219425</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043327158036422</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035829085322967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9558778955670149</v>
+        <v>1.00244333759087</v>
       </c>
       <c r="D18">
-        <v>0.9667066610294364</v>
+        <v>1.021641770836908</v>
       </c>
       <c r="E18">
-        <v>0.9691734647785686</v>
+        <v>1.019185186474102</v>
       </c>
       <c r="F18">
-        <v>0.9222063818940803</v>
+        <v>1.029224540733899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031732159456082</v>
+        <v>1.050301513039166</v>
       </c>
       <c r="J18">
-        <v>0.9847180420348267</v>
+        <v>1.029414355305932</v>
       </c>
       <c r="K18">
-        <v>0.9811259413079177</v>
+        <v>1.035097110527097</v>
       </c>
       <c r="L18">
-        <v>0.9835464009816401</v>
+        <v>1.032680776754447</v>
       </c>
       <c r="M18">
-        <v>0.9375181463798723</v>
+        <v>1.042557192655381</v>
       </c>
       <c r="N18">
-        <v>0.9982759443000483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013775178461251</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043145031156759</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03595535488674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9565468541898089</v>
+        <v>1.002445528245449</v>
       </c>
       <c r="D19">
-        <v>0.9673095627806519</v>
+        <v>1.021529733912403</v>
       </c>
       <c r="E19">
-        <v>0.969720092266051</v>
+        <v>1.01904752922584</v>
       </c>
       <c r="F19">
-        <v>0.9231542858897345</v>
+        <v>1.028898263438853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031944140207973</v>
+        <v>1.050251903543161</v>
       </c>
       <c r="J19">
-        <v>0.985213390225676</v>
+        <v>1.029282374805232</v>
       </c>
       <c r="K19">
-        <v>0.9816497649432407</v>
+        <v>1.034924295769255</v>
       </c>
       <c r="L19">
-        <v>0.9840153228540897</v>
+        <v>1.032482557104467</v>
       </c>
       <c r="M19">
-        <v>0.9383733024740665</v>
+        <v>1.042174174402594</v>
       </c>
       <c r="N19">
-        <v>0.998445383898797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013708123505983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042517432626535</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03583956797897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535353845300242</v>
+        <v>1.000611792946413</v>
       </c>
       <c r="D20">
-        <v>0.9645960305460614</v>
+        <v>1.020004871812032</v>
       </c>
       <c r="E20">
-        <v>0.9672601693094373</v>
+        <v>1.017403355840259</v>
       </c>
       <c r="F20">
-        <v>0.9188837740313957</v>
+        <v>1.026964439050085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030988351880799</v>
+        <v>1.049744104602807</v>
       </c>
       <c r="J20">
-        <v>0.9829828905398479</v>
+        <v>1.02811915135547</v>
       </c>
       <c r="K20">
-        <v>0.9792913565543757</v>
+        <v>1.033704849805232</v>
       </c>
       <c r="L20">
-        <v>0.981904220939769</v>
+        <v>1.031146938691156</v>
       </c>
       <c r="M20">
-        <v>0.9345205037971617</v>
+        <v>1.040549162108912</v>
       </c>
       <c r="N20">
-        <v>0.9976824170290149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013284228222017</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040705110081825</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034981298374224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9433758819033019</v>
+        <v>0.9961617605805587</v>
       </c>
       <c r="D21">
-        <v>0.955452405451939</v>
+        <v>1.016774995235961</v>
       </c>
       <c r="E21">
-        <v>0.9589774018948702</v>
+        <v>1.013981231550897</v>
       </c>
       <c r="F21">
-        <v>0.90440969361136</v>
+        <v>1.023601660948898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02773724158316</v>
+        <v>1.048687461105374</v>
       </c>
       <c r="J21">
-        <v>0.9754478203032519</v>
+        <v>1.025820838180893</v>
       </c>
       <c r="K21">
-        <v>0.971329923213365</v>
+        <v>1.031445380182042</v>
       </c>
       <c r="L21">
-        <v>0.9747799922499826</v>
+        <v>1.028702479691203</v>
       </c>
       <c r="M21">
-        <v>0.9214605008421318</v>
+        <v>1.038149276208349</v>
       </c>
       <c r="N21">
-        <v>0.9951051304146333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01251567495354</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038764981513717</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033387001659111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9366749674467245</v>
+        <v>0.9933228141509757</v>
       </c>
       <c r="D22">
-        <v>0.9494306095356245</v>
+        <v>1.014725671896749</v>
       </c>
       <c r="E22">
-        <v>0.9535278857507694</v>
+        <v>1.011816412063108</v>
       </c>
       <c r="F22">
-        <v>0.894800310941981</v>
+        <v>1.021492515009382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025572825606472</v>
+        <v>1.047999170577024</v>
       </c>
       <c r="J22">
-        <v>0.97047009157303</v>
+        <v>1.024358899107811</v>
       </c>
       <c r="K22">
-        <v>0.9660751324470539</v>
+        <v>1.030010947928603</v>
       </c>
       <c r="L22">
-        <v>0.9700798158460865</v>
+        <v>1.027157362573244</v>
       </c>
       <c r="M22">
-        <v>0.9127897042308015</v>
+        <v>1.036649895499226</v>
       </c>
       <c r="N22">
-        <v>0.9934028708292817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012027751603185</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037578318363137</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032359261353477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9402590914995873</v>
+        <v>0.9948227882570131</v>
       </c>
       <c r="D23">
-        <v>0.9526505957767483</v>
+        <v>1.015800704323234</v>
       </c>
       <c r="E23">
-        <v>0.9564413307737262</v>
+        <v>1.012957523672916</v>
       </c>
       <c r="F23">
-        <v>0.8999467037387068</v>
+        <v>1.022603401064369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026732343340734</v>
+        <v>1.048362757792211</v>
       </c>
       <c r="J23">
-        <v>0.9731332556725282</v>
+        <v>1.025126931217288</v>
       </c>
       <c r="K23">
-        <v>0.9688860897560553</v>
+        <v>1.030759795122549</v>
       </c>
       <c r="L23">
-        <v>0.9725938878994081</v>
+        <v>1.027969616316663</v>
       </c>
       <c r="M23">
-        <v>0.9174333727892074</v>
+        <v>1.037437234790725</v>
       </c>
       <c r="N23">
-        <v>0.9943135644263147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012283183075648</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03820144689005</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032879073683003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9537008456063379</v>
+        <v>1.000628261679968</v>
       </c>
       <c r="D24">
-        <v>0.964745083990468</v>
+        <v>1.019989724458916</v>
       </c>
       <c r="E24">
-        <v>0.9673952699878019</v>
+        <v>1.017393920305951</v>
       </c>
       <c r="F24">
-        <v>0.9191186347765531</v>
+        <v>1.026927800066349</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031040965819673</v>
+        <v>1.049738461578834</v>
       </c>
       <c r="J24">
-        <v>0.9831054803549888</v>
+        <v>1.028102148615385</v>
       </c>
       <c r="K24">
-        <v>0.9794209555517731</v>
+        <v>1.033674662250007</v>
       </c>
       <c r="L24">
-        <v>0.982020221780317</v>
+        <v>1.031122312771978</v>
       </c>
       <c r="M24">
-        <v>0.9347324005415465</v>
+        <v>1.040497978521572</v>
       </c>
       <c r="N24">
-        <v>0.9977243500347041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013274338560222</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040623824000641</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034932516400846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.968121929372104</v>
+        <v>1.007136189422081</v>
       </c>
       <c r="D25">
-        <v>0.9777530621195103</v>
+        <v>1.024718277657079</v>
       </c>
       <c r="E25">
-        <v>0.9791954542407748</v>
+        <v>1.022399562162138</v>
       </c>
       <c r="F25">
-        <v>0.9394947534104008</v>
+        <v>1.031816024541424</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035579075175168</v>
+        <v>1.05120841580638</v>
       </c>
       <c r="J25">
-        <v>0.9937718947089478</v>
+        <v>1.031425756092406</v>
       </c>
       <c r="K25">
-        <v>0.9907068382252407</v>
+        <v>1.036944620468371</v>
       </c>
       <c r="L25">
-        <v>0.992125554417631</v>
+        <v>1.034659827586012</v>
       </c>
       <c r="M25">
-        <v>0.9531110524730062</v>
+        <v>1.043939727861874</v>
       </c>
       <c r="N25">
-        <v>1.001372761154965</v>
+        <v>1.014381831903053</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04334773224551</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037241681968171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012126785684339</v>
+        <v>1.011652914985303</v>
       </c>
       <c r="D2">
-        <v>1.028348765483946</v>
+        <v>1.027296055856017</v>
       </c>
       <c r="E2">
-        <v>1.026257489549783</v>
+        <v>1.025793984228166</v>
       </c>
       <c r="F2">
-        <v>1.03558832049922</v>
+        <v>1.034965345896393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052270488583138</v>
+        <v>1.052079621938866</v>
       </c>
       <c r="J2">
-        <v>1.033950739143479</v>
+        <v>1.033490589184015</v>
       </c>
       <c r="K2">
-        <v>1.039426794447029</v>
+        <v>1.038387773065965</v>
       </c>
       <c r="L2">
-        <v>1.037362745571349</v>
+        <v>1.036905293616216</v>
       </c>
       <c r="M2">
-        <v>1.046573156358609</v>
+        <v>1.045958137094338</v>
       </c>
       <c r="N2">
-        <v>1.015221058636636</v>
+        <v>1.016090788370309</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045431903168234</v>
+        <v>1.044945159795633</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038948435067087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038222528282351</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022225244252358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015674010478232</v>
+        <v>1.015052990371665</v>
       </c>
       <c r="D3">
-        <v>1.030954438116525</v>
+        <v>1.029687158946759</v>
       </c>
       <c r="E3">
-        <v>1.029016013676387</v>
+        <v>1.028417046413769</v>
       </c>
       <c r="F3">
-        <v>1.038290899827969</v>
+        <v>1.037520701035965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.05299257557162</v>
+        <v>1.052741803897262</v>
       </c>
       <c r="J3">
-        <v>1.035746318399744</v>
+        <v>1.035141540869734</v>
       </c>
       <c r="K3">
-        <v>1.041205997325821</v>
+        <v>1.039953771429463</v>
       </c>
       <c r="L3">
-        <v>1.039290616920948</v>
+        <v>1.038698791977531</v>
       </c>
       <c r="M3">
-        <v>1.048456206645836</v>
+        <v>1.047694991943604</v>
       </c>
       <c r="N3">
-        <v>1.015819323406512</v>
+        <v>1.016527135724808</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046922199599017</v>
+        <v>1.04631975425955</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040203822230959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03932688373441</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022547748587418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017928547989104</v>
+        <v>1.017214904657161</v>
       </c>
       <c r="D4">
-        <v>1.032617111290553</v>
+        <v>1.031213993538301</v>
       </c>
       <c r="E4">
-        <v>1.030775402667658</v>
+        <v>1.03009102035243</v>
       </c>
       <c r="F4">
-        <v>1.04001654150676</v>
+        <v>1.039153360828111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053434622192638</v>
+        <v>1.053145980696521</v>
       </c>
       <c r="J4">
-        <v>1.036884498381387</v>
+        <v>1.036188272196047</v>
       </c>
       <c r="K4">
-        <v>1.0423371906707</v>
+        <v>1.040949741856177</v>
       </c>
       <c r="L4">
-        <v>1.040516059603255</v>
+        <v>1.03983934703365</v>
       </c>
       <c r="M4">
-        <v>1.049654848832567</v>
+        <v>1.048801133567144</v>
       </c>
       <c r="N4">
-        <v>1.016198629813404</v>
+        <v>1.016803878382203</v>
       </c>
       <c r="O4">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047870835559717</v>
+        <v>1.047195183675992</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041004566548446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040032095855416</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022750604151165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0188701131047</v>
+        <v>1.018117936080741</v>
       </c>
       <c r="D5">
-        <v>1.033315417850892</v>
+        <v>1.031855684795169</v>
       </c>
       <c r="E5">
-        <v>1.031512169649454</v>
+        <v>1.030792222063365</v>
       </c>
       <c r="F5">
-        <v>1.040739912729091</v>
+        <v>1.039838003995588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053615803488135</v>
+        <v>1.053311370220695</v>
       </c>
       <c r="J5">
-        <v>1.037360611961927</v>
+        <v>1.036626250401753</v>
       </c>
       <c r="K5">
-        <v>1.042812768876845</v>
+        <v>1.041368905960371</v>
       </c>
       <c r="L5">
-        <v>1.041029133505848</v>
+        <v>1.040317039879338</v>
       </c>
       <c r="M5">
-        <v>1.050157388922231</v>
+        <v>1.049265108634972</v>
       </c>
       <c r="N5">
-        <v>1.016357569914476</v>
+        <v>1.016919887411988</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048268558226462</v>
+        <v>1.047562385372691</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041347997211563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040336349355085</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02283593578227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019031620482547</v>
+        <v>1.018272776627483</v>
       </c>
       <c r="D6">
-        <v>1.033438164442969</v>
+        <v>1.031968716939629</v>
       </c>
       <c r="E6">
-        <v>1.031639293821983</v>
+        <v>1.03091319288285</v>
       </c>
       <c r="F6">
-        <v>1.040865080872141</v>
+        <v>1.039956498105816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053647480819258</v>
+        <v>1.053340314272501</v>
       </c>
       <c r="J6">
-        <v>1.037444102165479</v>
+        <v>1.036703140305276</v>
       </c>
       <c r="K6">
-        <v>1.042898099353068</v>
+        <v>1.041444554860768</v>
       </c>
       <c r="L6">
-        <v>1.041118704531745</v>
+        <v>1.040400488479767</v>
       </c>
       <c r="M6">
-        <v>1.050245479335208</v>
+        <v>1.049346552118209</v>
       </c>
       <c r="N6">
-        <v>1.016385750227576</v>
+        <v>1.016940486926711</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04833827513788</v>
+        <v>1.047626841802728</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041417061055635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040399438103835</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022851917977591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017951848857559</v>
+        <v>1.017243302732491</v>
       </c>
       <c r="D7">
-        <v>1.032642082102404</v>
+        <v>1.031242370836518</v>
       </c>
       <c r="E7">
-        <v>1.030795412424999</v>
+        <v>1.030115244633744</v>
       </c>
       <c r="F7">
-        <v>1.040037052853556</v>
+        <v>1.039177255779887</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053441387391121</v>
+        <v>1.053154804666397</v>
       </c>
       <c r="J7">
-        <v>1.036901304164176</v>
+        <v>1.03621004330286</v>
       </c>
       <c r="K7">
-        <v>1.042359008361504</v>
+        <v>1.040974921788988</v>
       </c>
       <c r="L7">
-        <v>1.04053296368662</v>
+        <v>1.039860415465581</v>
       </c>
       <c r="M7">
-        <v>1.049672287952949</v>
+        <v>1.048821915558612</v>
       </c>
       <c r="N7">
-        <v>1.016205075279205</v>
+        <v>1.016836025370895</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047884637314849</v>
+        <v>1.047211631077735</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04104007102082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040071980474813</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02275796364757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013347630218369</v>
+        <v>1.012841740717257</v>
       </c>
       <c r="D8">
-        <v>1.029253733311134</v>
+        <v>1.028141802635464</v>
       </c>
       <c r="E8">
-        <v>1.027207888704227</v>
+        <v>1.026713492567257</v>
       </c>
       <c r="F8">
-        <v>1.03652008680572</v>
+        <v>1.035859774518321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052525194035012</v>
+        <v>1.05232125461357</v>
       </c>
       <c r="J8">
-        <v>1.034575606003774</v>
+        <v>1.034083878019996</v>
       </c>
       <c r="K8">
-        <v>1.040051504310894</v>
+        <v>1.03895360462912</v>
       </c>
       <c r="L8">
-        <v>1.038031504669739</v>
+        <v>1.037543373484914</v>
       </c>
       <c r="M8">
-        <v>1.047227089672828</v>
+        <v>1.046574960207449</v>
       </c>
       <c r="N8">
-        <v>1.015430324401813</v>
+        <v>1.01632665714709</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045949443849482</v>
+        <v>1.045433330783935</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039413043783121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038647775156678</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022346075178972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004892802736502</v>
+        <v>1.004746221247476</v>
       </c>
       <c r="D9">
-        <v>1.02307259264116</v>
+        <v>1.022477565141157</v>
       </c>
       <c r="E9">
-        <v>1.020667068278864</v>
+        <v>1.020502206463918</v>
       </c>
       <c r="F9">
-        <v>1.030121837441808</v>
+        <v>1.029818143431204</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050708056599317</v>
+        <v>1.05064931914247</v>
       </c>
       <c r="J9">
-        <v>1.03027395877649</v>
+        <v>1.030132484314241</v>
       </c>
       <c r="K9">
-        <v>1.035802104529203</v>
+        <v>1.03521619014319</v>
       </c>
       <c r="L9">
-        <v>1.033433505274043</v>
+        <v>1.033271182245834</v>
       </c>
       <c r="M9">
-        <v>1.042744406987655</v>
+        <v>1.042445281819436</v>
       </c>
       <c r="N9">
-        <v>1.013996586215524</v>
+        <v>1.015291534267601</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042401719020604</v>
+        <v>1.042164982089536</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036405260046742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036001725048001</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021562205258606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9990751028414137</v>
+        <v>0.9992052061657557</v>
       </c>
       <c r="D10">
-        <v>1.018879807315187</v>
+        <v>1.018660802378337</v>
       </c>
       <c r="E10">
-        <v>1.016226887522004</v>
+        <v>1.016312388552039</v>
       </c>
       <c r="F10">
-        <v>1.025822023029226</v>
+        <v>1.0257835471484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049382742974217</v>
+        <v>1.049434661221834</v>
       </c>
       <c r="J10">
-        <v>1.027325464666348</v>
+        <v>1.027450393481791</v>
       </c>
       <c r="K10">
-        <v>1.032916347557013</v>
+        <v>1.032701110676054</v>
       </c>
       <c r="L10">
-        <v>1.030309213613764</v>
+        <v>1.030393234187227</v>
       </c>
       <c r="M10">
-        <v>1.039740195921042</v>
+        <v>1.039702370371354</v>
       </c>
       <c r="N10">
-        <v>1.013018351054745</v>
+        <v>1.014702233134879</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0400754286243</v>
+        <v>1.040045494078673</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034381670668112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034241913217428</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021031480220429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969237566563758</v>
+        <v>0.9971689979703137</v>
       </c>
       <c r="D11">
-        <v>1.01750988468552</v>
+        <v>1.017428313288922</v>
       </c>
       <c r="E11">
-        <v>1.014791077417088</v>
+        <v>1.014975329858491</v>
       </c>
       <c r="F11">
-        <v>1.024699361770688</v>
+        <v>1.024761949277586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048946077867931</v>
+        <v>1.049043766931349</v>
       </c>
       <c r="J11">
-        <v>1.026425073296</v>
+        <v>1.026660026035806</v>
       </c>
       <c r="K11">
-        <v>1.032108976067311</v>
+        <v>1.032028875094515</v>
       </c>
       <c r="L11">
-        <v>1.029439344298536</v>
+        <v>1.029620253311497</v>
       </c>
       <c r="M11">
-        <v>1.039170046886597</v>
+        <v>1.039231526822182</v>
       </c>
       <c r="N11">
-        <v>1.012751831657151</v>
+        <v>1.014743118767795</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040059634450852</v>
+        <v>1.040108264336165</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033843713864171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033802720447619</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020934633764243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,105 +1059,123 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962680411286187</v>
+        <v>0.9965400860728513</v>
       </c>
       <c r="D12">
-        <v>1.017161283436671</v>
+        <v>1.017109845568857</v>
       </c>
       <c r="E12">
-        <v>1.014440233350561</v>
+        <v>1.014645221152986</v>
       </c>
       <c r="F12">
-        <v>1.024554782535751</v>
+        <v>1.024639341391026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048839462740663</v>
+        <v>1.048947757726538</v>
       </c>
       <c r="J12">
-        <v>1.026231188273718</v>
+        <v>1.026491600934836</v>
       </c>
       <c r="K12">
-        <v>1.031966923867618</v>
+        <v>1.031916428702705</v>
       </c>
       <c r="L12">
-        <v>1.029295913569241</v>
+        <v>1.029497119487581</v>
       </c>
       <c r="M12">
-        <v>1.039226201631233</v>
+        <v>1.039309239966029</v>
       </c>
       <c r="N12">
-        <v>1.012712225701306</v>
+        <v>1.014816101130442</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040429883305515</v>
+        <v>1.040495543468525</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033743278079737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033723218647027</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020943043687623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9967362230705947</v>
+        <v>0.9969597387062392</v>
       </c>
       <c r="D13">
-        <v>1.017596953270713</v>
+        <v>1.017487663737672</v>
       </c>
       <c r="E13">
-        <v>1.014916640153203</v>
+        <v>1.015076301560815</v>
       </c>
       <c r="F13">
-        <v>1.025176701170463</v>
+        <v>1.025217341713514</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048992806420793</v>
+        <v>1.049081798738998</v>
       </c>
       <c r="J13">
-        <v>1.026586228078183</v>
+        <v>1.02680023356045</v>
       </c>
       <c r="K13">
-        <v>1.032351685022614</v>
+        <v>1.032244389666078</v>
       </c>
       <c r="L13">
-        <v>1.029720440242902</v>
+        <v>1.029877169283807</v>
       </c>
       <c r="M13">
-        <v>1.039794474524683</v>
+        <v>1.039834387822935</v>
       </c>
       <c r="N13">
-        <v>1.012851837546726</v>
+        <v>1.014888918167905</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041155427179302</v>
+        <v>1.041186979558354</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034012821338269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033952354935315</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021039226737306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9975745513628453</v>
+        <v>0.9977306232221007</v>
       </c>
       <c r="D14">
-        <v>1.018259495965198</v>
+        <v>1.018070427393829</v>
       </c>
       <c r="E14">
-        <v>1.015625748902363</v>
+        <v>1.015724477849026</v>
       </c>
       <c r="F14">
-        <v>1.025960532143631</v>
+        <v>1.025941156200587</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049218117830461</v>
+        <v>1.049280288698168</v>
       </c>
       <c r="J14">
-        <v>1.02708437992028</v>
+        <v>1.027233906091061</v>
       </c>
       <c r="K14">
-        <v>1.032861617544256</v>
+        <v>1.03267595555512</v>
       </c>
       <c r="L14">
-        <v>1.030275473142764</v>
+        <v>1.030372411857837</v>
       </c>
       <c r="M14">
-        <v>1.040425282521277</v>
+        <v>1.040406248850596</v>
       </c>
       <c r="N14">
-        <v>1.013031120172583</v>
+        <v>1.014941394169491</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041827123078751</v>
+        <v>1.041812078551069</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034374787761627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034259045729738</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021147126738484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.998028268979185</v>
+        <v>0.9981517323235547</v>
       </c>
       <c r="D15">
-        <v>1.018600333664057</v>
+        <v>1.018372589197708</v>
       </c>
       <c r="E15">
-        <v>1.015986159377984</v>
+        <v>1.01605585851507</v>
       </c>
       <c r="F15">
-        <v>1.026331187348513</v>
+        <v>1.026282910777387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049331770193906</v>
+        <v>1.04938096633982</v>
       </c>
       <c r="J15">
-        <v>1.027331718013314</v>
+        <v>1.027450048395948</v>
       </c>
       <c r="K15">
-        <v>1.033109769480762</v>
+        <v>1.032886097086707</v>
       </c>
       <c r="L15">
-        <v>1.030542479325168</v>
+        <v>1.030610924369094</v>
       </c>
       <c r="M15">
-        <v>1.040703784250366</v>
+        <v>1.040656353903968</v>
       </c>
       <c r="N15">
-        <v>1.013116367366895</v>
+        <v>1.014958921605122</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042084731636601</v>
+        <v>1.042047242891803</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034556117150832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034414068663009</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021195395615713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00040582367685</v>
+        <v>1.000381148675142</v>
       </c>
       <c r="D16">
-        <v>1.020299260364613</v>
+        <v>1.01989205762568</v>
       </c>
       <c r="E16">
-        <v>1.017780254513985</v>
+        <v>1.017719544489732</v>
       </c>
       <c r="F16">
-        <v>1.028058011164749</v>
+        <v>1.027877558903085</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049885648750318</v>
+        <v>1.049875799721698</v>
       </c>
       <c r="J16">
-        <v>1.028526615830723</v>
+        <v>1.028502915601867</v>
       </c>
       <c r="K16">
-        <v>1.034275798247831</v>
+        <v>1.033875557653888</v>
       </c>
       <c r="L16">
-        <v>1.031799976607992</v>
+        <v>1.031740310767973</v>
       </c>
       <c r="M16">
-        <v>1.041903252123011</v>
+        <v>1.041725824529786</v>
       </c>
       <c r="N16">
-        <v>1.013509143354328</v>
+        <v>1.015028349389085</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042994135270424</v>
+        <v>1.042853893253311</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035383710614286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035117118052043</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021399943760263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001791494724638</v>
+        <v>1.001695099644591</v>
       </c>
       <c r="D17">
-        <v>1.021256741462509</v>
+        <v>1.02075867769101</v>
       </c>
       <c r="E17">
-        <v>1.018785958618967</v>
+        <v>1.018662379794016</v>
       </c>
       <c r="F17">
-        <v>1.028969056092589</v>
+        <v>1.028723173333311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050188392712279</v>
+        <v>1.050149876078985</v>
       </c>
       <c r="J17">
-        <v>1.029181002085179</v>
+        <v>1.029088293161624</v>
       </c>
       <c r="K17">
-        <v>1.034902052939014</v>
+        <v>1.034412265363355</v>
       </c>
       <c r="L17">
-        <v>1.032472428888955</v>
+        <v>1.032350915420776</v>
       </c>
       <c r="M17">
-        <v>1.042487527891725</v>
+        <v>1.042245651301954</v>
       </c>
       <c r="N17">
-        <v>1.013716040219425</v>
+        <v>1.015082091572892</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043327158036422</v>
+        <v>1.043135955352631</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035829085322967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035499425706776</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021500821828725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00244333759087</v>
+        <v>1.002327205776392</v>
       </c>
       <c r="D18">
-        <v>1.021641770836908</v>
+        <v>1.02111607037424</v>
       </c>
       <c r="E18">
-        <v>1.019185186474102</v>
+        <v>1.019045347762408</v>
       </c>
       <c r="F18">
-        <v>1.029224540733899</v>
+        <v>1.028959983680966</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050301513039166</v>
+        <v>1.050255082536159</v>
       </c>
       <c r="J18">
-        <v>1.029414355305932</v>
+        <v>1.029302581464042</v>
       </c>
       <c r="K18">
-        <v>1.035097110527097</v>
+        <v>1.034580002613662</v>
       </c>
       <c r="L18">
-        <v>1.032680776754447</v>
+        <v>1.032543236777395</v>
       </c>
       <c r="M18">
-        <v>1.042557192655381</v>
+        <v>1.042296877039796</v>
       </c>
       <c r="N18">
-        <v>1.013775178461251</v>
+        <v>1.015085454270819</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043145031156759</v>
+        <v>1.042939209733507</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03595535488674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035605242510935</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021512895442082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002445528245449</v>
+        <v>1.002350461697429</v>
       </c>
       <c r="D19">
-        <v>1.021529733912403</v>
+        <v>1.02102856049083</v>
       </c>
       <c r="E19">
-        <v>1.01904752922584</v>
+        <v>1.018928340366936</v>
       </c>
       <c r="F19">
-        <v>1.028898263438853</v>
+        <v>1.028652799838005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050251903543161</v>
+        <v>1.050213888217301</v>
       </c>
       <c r="J19">
-        <v>1.029282374805232</v>
+        <v>1.029190854756555</v>
       </c>
       <c r="K19">
-        <v>1.034924295769255</v>
+        <v>1.034431272338412</v>
       </c>
       <c r="L19">
-        <v>1.032482557104467</v>
+        <v>1.032365317692824</v>
       </c>
       <c r="M19">
-        <v>1.042174174402594</v>
+        <v>1.041932628266369</v>
       </c>
       <c r="N19">
-        <v>1.013708123505983</v>
+        <v>1.015028864272637</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042517432626535</v>
+        <v>1.042326389352817</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03583956797897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03550710984736</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021451245865992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000611792946413</v>
+        <v>1.000650465109921</v>
       </c>
       <c r="D20">
-        <v>1.020004871812032</v>
+        <v>1.01967251065842</v>
       </c>
       <c r="E20">
-        <v>1.017403355840259</v>
+        <v>1.017407167244477</v>
       </c>
       <c r="F20">
-        <v>1.026964439050085</v>
+        <v>1.026842800261048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049744104602807</v>
+        <v>1.04975955352904</v>
       </c>
       <c r="J20">
-        <v>1.02811915135547</v>
+        <v>1.028156335425221</v>
       </c>
       <c r="K20">
-        <v>1.033704849805232</v>
+        <v>1.033378043489533</v>
       </c>
       <c r="L20">
-        <v>1.031146938691156</v>
+        <v>1.03115068600085</v>
       </c>
       <c r="M20">
-        <v>1.040549162108912</v>
+        <v>1.040429520485809</v>
       </c>
       <c r="N20">
-        <v>1.013284228222017</v>
+        <v>1.014791952377029</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040705110081825</v>
+        <v>1.040610426451462</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034981298374224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034766755754956</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021177923025569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9961617605805587</v>
+        <v>0.9965020782387207</v>
       </c>
       <c r="D21">
-        <v>1.016774995235961</v>
+        <v>1.016801899046824</v>
       </c>
       <c r="E21">
-        <v>1.013981231550897</v>
+        <v>1.014253247385718</v>
       </c>
       <c r="F21">
-        <v>1.023601660948898</v>
+        <v>1.023748162726627</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048687461105374</v>
+        <v>1.048822988602572</v>
       </c>
       <c r="J21">
-        <v>1.025820838180893</v>
+        <v>1.026146777622734</v>
       </c>
       <c r="K21">
-        <v>1.031445380182042</v>
+        <v>1.031471795950205</v>
       </c>
       <c r="L21">
-        <v>1.028702479691203</v>
+        <v>1.0289695271839</v>
       </c>
       <c r="M21">
-        <v>1.038149276208349</v>
+        <v>1.038293166617032</v>
       </c>
       <c r="N21">
-        <v>1.01251567495354</v>
+        <v>1.014674503753176</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038764981513717</v>
+        <v>1.038878861390551</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033387001659111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033422535334626</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020771246364983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933228141509757</v>
+        <v>0.993853283694619</v>
       </c>
       <c r="D22">
-        <v>1.014725671896749</v>
+        <v>1.01497904950769</v>
       </c>
       <c r="E22">
-        <v>1.011816412063108</v>
+        <v>1.012257355699099</v>
       </c>
       <c r="F22">
-        <v>1.021492515009382</v>
+        <v>1.021808071367697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047999170577024</v>
+        <v>1.048210000181645</v>
       </c>
       <c r="J22">
-        <v>1.024358899107811</v>
+        <v>1.024865653227989</v>
       </c>
       <c r="K22">
-        <v>1.030010947928603</v>
+        <v>1.030259496418475</v>
       </c>
       <c r="L22">
-        <v>1.027157362573244</v>
+        <v>1.027589840937235</v>
       </c>
       <c r="M22">
-        <v>1.036649895499226</v>
+        <v>1.036959541705656</v>
       </c>
       <c r="N22">
-        <v>1.012027751603185</v>
+        <v>1.014591982288814</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037578318363137</v>
+        <v>1.037823383530911</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032359261353477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032550557605616</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020511520462366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9948227882570131</v>
+        <v>0.9952432896063119</v>
       </c>
       <c r="D23">
-        <v>1.015800704323234</v>
+        <v>1.015926974954004</v>
       </c>
       <c r="E23">
-        <v>1.012957523672916</v>
+        <v>1.013301186262228</v>
       </c>
       <c r="F23">
-        <v>1.022603401064369</v>
+        <v>1.022822842826492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048362757792211</v>
+        <v>1.048530060069142</v>
       </c>
       <c r="J23">
-        <v>1.025126931217288</v>
+        <v>1.025529184006055</v>
       </c>
       <c r="K23">
-        <v>1.030759795122549</v>
+        <v>1.030883720822095</v>
       </c>
       <c r="L23">
-        <v>1.027969616316663</v>
+        <v>1.028306851809159</v>
       </c>
       <c r="M23">
-        <v>1.037437234790725</v>
+        <v>1.03765267211021</v>
       </c>
       <c r="N23">
-        <v>1.012283183075648</v>
+        <v>1.014591631443238</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03820144689005</v>
+        <v>1.038371951609443</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032879073683003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032981311531613</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020642937133401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000628261679968</v>
+        <v>1.000668895398436</v>
       </c>
       <c r="D24">
-        <v>1.019989724458916</v>
+        <v>1.019659412602667</v>
       </c>
       <c r="E24">
-        <v>1.017393920305951</v>
+        <v>1.017399774036686</v>
       </c>
       <c r="F24">
-        <v>1.026927800066349</v>
+        <v>1.026807929495088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049738461578834</v>
+        <v>1.049754694861773</v>
       </c>
       <c r="J24">
-        <v>1.028102148615385</v>
+        <v>1.02814122103258</v>
       </c>
       <c r="K24">
-        <v>1.033674662250007</v>
+        <v>1.033349864100716</v>
       </c>
       <c r="L24">
-        <v>1.031122312771978</v>
+        <v>1.031128068187572</v>
       </c>
       <c r="M24">
-        <v>1.040497978521572</v>
+        <v>1.040380073742238</v>
       </c>
       <c r="N24">
-        <v>1.013274338560222</v>
+        <v>1.014781079856113</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040623824000641</v>
+        <v>1.040530510283073</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034932516400846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034716720554433</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021165609882341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007136189422081</v>
+        <v>1.006885307007334</v>
       </c>
       <c r="D25">
-        <v>1.024718277657079</v>
+        <v>1.023979469326141</v>
       </c>
       <c r="E25">
-        <v>1.022399562162138</v>
+        <v>1.022139761372083</v>
       </c>
       <c r="F25">
-        <v>1.031816024541424</v>
+        <v>1.03141139017543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05120841580638</v>
+        <v>1.051107724465661</v>
       </c>
       <c r="J25">
-        <v>1.031425756092406</v>
+        <v>1.031183154333631</v>
       </c>
       <c r="K25">
-        <v>1.036944620468371</v>
+        <v>1.036216599679983</v>
       </c>
       <c r="L25">
-        <v>1.034659827586012</v>
+        <v>1.034403839832258</v>
       </c>
       <c r="M25">
-        <v>1.043939727861874</v>
+        <v>1.043540896772747</v>
       </c>
       <c r="N25">
-        <v>1.014381831903053</v>
+        <v>1.015537488460539</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04334773224551</v>
+        <v>1.043032085351504</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037241681968171</v>
+        <v>1.036740473014342</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021775943546</v>
       </c>
     </row>
   </sheetData>
